--- a/Critical_RT_Calcs_ID-3.25.xlsx
+++ b/Critical_RT_Calcs_ID-3.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F96698B-A9FC-4BEE-A589-840C9997FC61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6924CA37-0BBD-47C4-9F0A-83EAEB7DCF0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="23640" windowHeight="20535" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="23640" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Plumbing Length [RT top to highest pt] (ft)</t>
+  </si>
+  <si>
+    <t>Worst case RT-inj. Plumbing pressure (located at bottom of plumbing tree, just above injector) (psi)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -945,7 +948,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1189,6 +1191,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1219,8 +1224,35 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,36 +1287,8 @@
     <xf numFmtId="166" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3969,13 +3973,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
@@ -4100,19 +4104,19 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="143">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
         <v>9.5260666468645297E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="145">
         <f>E12</f>
         <v>9.5260666468645297E-2</v>
       </c>
@@ -4126,10 +4130,10 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <f>'N2O Pressure Calcs'!H53</f>
         <v>961.62491917740169</v>
       </c>
@@ -4140,7 +4144,7 @@
       <c r="A17" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="178">
         <f>B10*B16</f>
         <v>1923.2498383548034</v>
       </c>
@@ -4148,17 +4152,17 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="61">
+    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="179">
         <f>'N2O Pressure Calcs'!J53</f>
         <v>1032.2008799630817</v>
       </c>
@@ -4214,7 +4218,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H53" sqref="H53"/>
     </sheetView>
@@ -4236,12 +4240,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="176" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="178"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="159"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="154" t="s">
@@ -5748,10 +5752,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="66">
+      <c r="A47" s="65">
         <v>70</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B47" s="66">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>191.15311668553016</v>
       </c>
       <c r="H47" s="43">
-        <f t="shared" ref="G47:J47" si="5">H46+(((H48-H46)/($A$48-$A$46))*($A$47-$A$46))</f>
+        <f t="shared" ref="H47:J47" si="5">H46+(((H48-H46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>918.36820652652568</v>
       </c>
       <c r="I47" s="40">
@@ -5947,43 +5951,43 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="78">
+      <c r="A53" s="77">
         <v>75</v>
       </c>
-      <c r="B53" s="79">
+      <c r="B53" s="78">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="80">
+      <c r="C53" s="79">
         <f t="shared" ref="C53:D53" si="6">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="81">
+      <c r="D53" s="80">
         <f t="shared" si="6"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
       <c r="G53" s="36">
         <f>G52+(((G54-G52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>185.40506707262836</v>
       </c>
-      <c r="H53" s="81">
+      <c r="H53" s="80">
         <f t="shared" ref="H53" si="7">H52+(((H54-H52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>961.62491917740169</v>
       </c>
-      <c r="I53" s="83">
+      <c r="I53" s="82">
         <f t="shared" ref="I53" si="8">I52+(((I54-I52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>70.57596078568001</v>
       </c>
-      <c r="J53" s="81">
+      <c r="J53" s="80">
         <f t="shared" ref="J53" si="9">J52+(((J54-J52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1032.2008799630817</v>
       </c>
       <c r="K53" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="L53" s="77" t="s">
+      <c r="L53" s="76" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9072,7 +9076,7 @@
     <col min="1" max="1" width="11.42578125" style="24"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="23"/>
-    <col min="5" max="5" width="11.42578125" style="63"/>
+    <col min="5" max="5" width="11.42578125" style="62"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
@@ -9085,39 +9089,39 @@
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="75" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="74" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="161" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="164" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="94"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="166" t="s">
+      <c r="N1" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="170" t="s">
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="161" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="53"/>
@@ -9135,45 +9139,45 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="104" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="52"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="135" t="s">
+      <c r="F2" s="171"/>
+      <c r="G2" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="172" t="s">
+      <c r="I2" s="174"/>
+      <c r="J2" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="173"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="88" t="s">
+      <c r="K2" s="165"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="71"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="70"/>
       <c r="T2" t="s">
         <v>15</v>
       </c>
@@ -9189,48 +9193,48 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="131" t="s">
+      <c r="F3" s="172"/>
+      <c r="G3" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="116" t="s">
+      <c r="K3" s="115" t="s">
         <v>56</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="128" t="s">
+      <c r="N3" s="177"/>
+      <c r="O3" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="128" t="s">
+      <c r="P3" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="128" t="s">
+      <c r="Q3" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="129" t="s">
+      <c r="R3" s="128" t="s">
         <v>48</v>
       </c>
       <c r="S3" s="53"/>
@@ -9249,62 +9253,62 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="102">
+      <c r="A4" s="101">
         <v>32</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="105">
         <v>452.82023903999999</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="103">
         <v>1.75999830112</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="104">
         <v>0.16525852904319999</v>
       </c>
       <c r="E4" s="52"/>
-      <c r="F4" s="95">
+      <c r="F4" s="94">
         <f t="shared" ref="F4:F35" si="0">($C$53-C4)/(D4-C4)</f>
         <v>0.18736491688811011</v>
       </c>
-      <c r="G4" s="137">
+      <c r="G4" s="136">
         <f t="shared" ref="G4:G35" si="1">$U$7/((C4*(1-F4))+(D4*F4))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="83">
         <f>G4*F4</f>
         <v>0.14075320424349502</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="84">
         <f>H4-$G$55</f>
         <v>9.914634262639932E-2</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="83">
         <f>IF(I4&gt;0, ('BPV Calcs'!$B$8/12)+(I4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.7010850340974093</v>
       </c>
-      <c r="K4" s="96">
+      <c r="K4" s="95">
         <f>J4*12</f>
         <v>8.4130204091689116</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="122">
+      <c r="N4" s="121">
         <f>($C$47-C4)/(D4-C4)</f>
         <v>0.15895834986355586</v>
       </c>
-      <c r="O4" s="89">
+      <c r="O4" s="88">
         <f t="shared" ref="O4:O47" si="2">$U$7/((C4*(1-N4))+(D4*N4))</f>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="89">
         <f>O4*N4</f>
         <v>0.11582267126091907</v>
       </c>
-      <c r="Q4" s="90">
+      <c r="Q4" s="89">
         <f t="shared" ref="Q4:Q47" si="3">P4-$G$55</f>
         <v>7.4215809643823349E-2</v>
       </c>
-      <c r="R4" s="123">
+      <c r="R4" s="122">
         <f>IF(Q4&gt;0, ('BPV Calcs'!$B$8/12)+(Q4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.59289744056078075</v>
       </c>
@@ -9317,62 +9321,62 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="102">
+      <c r="A5" s="101">
         <v>32.9</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="105">
         <v>458.65366740000002</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="103">
         <v>1.7550485447999999</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="104">
         <v>0.16772615040639999</v>
       </c>
       <c r="E5" s="52"/>
-      <c r="F5" s="95">
+      <c r="F5" s="94">
         <f t="shared" si="0"/>
         <v>0.18512214630827489</v>
       </c>
-      <c r="G5" s="137">
+      <c r="G5" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="83">
         <f t="shared" ref="H5:H53" si="4">G5*F5</f>
         <v>0.13906837897984459</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="84">
         <f t="shared" ref="I5:I53" si="5">H5-$G$55</f>
         <v>9.7461517362748884E-2</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="83">
         <f>IF(I5&gt;0, ('BPV Calcs'!$B$8/12)+(I5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.69377363040895035</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="95">
         <f t="shared" ref="K5:K53" si="6">J5*12</f>
         <v>8.3252835649074051</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="122">
+      <c r="N5" s="121">
         <f t="shared" ref="N5:N47" si="7">($C$47-C5)/(D5-C5)</f>
         <v>0.15658283861487579</v>
       </c>
-      <c r="O5" s="89">
+      <c r="O5" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="89">
         <f t="shared" ref="P5:P45" si="8">O5*N5</f>
         <v>0.11409178981512741</v>
       </c>
-      <c r="Q5" s="90">
+      <c r="Q5" s="89">
         <f t="shared" si="3"/>
         <v>7.2484928198031706E-2</v>
       </c>
-      <c r="R5" s="123">
+      <c r="R5" s="122">
         <f>IF(Q5&gt;0, ('BPV Calcs'!$B$8/12)+(Q5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.58538617321450004</v>
       </c>
@@ -9385,62 +9389,62 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="102">
+      <c r="A6" s="101">
         <v>33.799999999999997</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="105">
         <v>464.54366057999999</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="103">
         <v>1.7500619224</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="104">
         <v>0.1702317244288</v>
       </c>
       <c r="E6" s="52"/>
-      <c r="F6" s="95">
+      <c r="F6" s="94">
         <f t="shared" si="0"/>
         <v>0.18284364136366457</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="83">
         <f t="shared" si="4"/>
         <v>0.13735670916905462</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="84">
         <f t="shared" si="5"/>
         <v>9.5749847551958922E-2</v>
       </c>
-      <c r="J6" s="84">
+      <c r="J6" s="83">
         <f>IF(I6&gt;0, ('BPV Calcs'!$B$8/12)+(I6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.68634573314385428</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="95">
         <f t="shared" si="6"/>
         <v>8.2361487977262513</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="122">
+      <c r="N6" s="121">
         <f t="shared" si="7"/>
         <v>0.1541689886823846</v>
       </c>
-      <c r="O6" s="89">
+      <c r="O6" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P6" s="90">
+      <c r="P6" s="89">
         <f t="shared" si="8"/>
         <v>0.112332973449431</v>
       </c>
-      <c r="Q6" s="90">
+      <c r="Q6" s="89">
         <f t="shared" si="3"/>
         <v>7.0726111832335292E-2</v>
       </c>
-      <c r="R6" s="123">
+      <c r="R6" s="122">
         <f>IF(Q6&gt;0, ('BPV Calcs'!$B$8/12)+(Q6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57775368055136589</v>
       </c>
@@ -9453,62 +9457,62 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="102">
+      <c r="A7" s="101">
         <v>34.700000000000003</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="105">
         <v>470.48731781999993</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="103">
         <v>1.7450423145599998</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="104">
         <v>0.17277604664159998</v>
       </c>
       <c r="E7" s="52"/>
-      <c r="F7" s="95">
+      <c r="F7" s="94">
         <f t="shared" si="0"/>
         <v>0.18053067987595114</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="83">
         <f t="shared" si="4"/>
         <v>0.1356191547426735</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="84">
         <f t="shared" si="5"/>
         <v>9.4012293125577795E-2</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="83">
         <f>IF(I7&gt;0, ('BPV Calcs'!$B$8/12)+(I7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67880550798458983</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="95">
         <f t="shared" si="6"/>
         <v>8.1456660958150771</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="122">
+      <c r="N7" s="121">
         <f t="shared" si="7"/>
         <v>0.15171807787171285</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="89">
         <f t="shared" si="8"/>
         <v>0.11054715321816959</v>
       </c>
-      <c r="Q7" s="90">
+      <c r="Q7" s="89">
         <f t="shared" si="3"/>
         <v>6.8940291601073872E-2</v>
       </c>
-      <c r="R7" s="123">
+      <c r="R7" s="122">
         <f>IF(Q7&gt;0, ('BPV Calcs'!$B$8/12)+(Q7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57000400293941</v>
       </c>
@@ -9522,1860 +9526,1860 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="102">
+      <c r="A8" s="101">
         <v>35.6</v>
       </c>
-      <c r="B8" s="106">
+      <c r="B8" s="105">
         <v>476.48608949999999</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="103">
         <v>1.73998778096</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="104">
         <v>0.17536002899519998</v>
       </c>
       <c r="E8" s="52"/>
-      <c r="F8" s="95">
+      <c r="F8" s="94">
         <f t="shared" si="0"/>
         <v>0.17818152870115089</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="83">
         <f t="shared" si="4"/>
         <v>0.13385441371966245</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="84">
         <f t="shared" si="5"/>
         <v>9.2247552102566743E-2</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="83">
         <f>IF(I8&gt;0, ('BPV Calcs'!$B$8/12)+(I8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67114730490371821</v>
       </c>
-      <c r="K8" s="96">
+      <c r="K8" s="95">
         <f t="shared" si="6"/>
         <v>8.0537676588446185</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="122">
+      <c r="N8" s="121">
         <f t="shared" si="7"/>
         <v>0.14922826351373839</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P8" s="90">
+      <c r="P8" s="89">
         <f t="shared" si="8"/>
         <v>0.10873298648750131</v>
       </c>
-      <c r="Q8" s="90">
+      <c r="Q8" s="89">
         <f t="shared" si="3"/>
         <v>6.712612487040559E-2</v>
       </c>
-      <c r="R8" s="123">
+      <c r="R8" s="122">
         <f>IF(Q8&gt;0, ('BPV Calcs'!$B$8/12)+(Q8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.56213131393583393</v>
       </c>
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="102">
+      <c r="A9" s="101">
         <v>36.5</v>
       </c>
-      <c r="B9" s="106">
+      <c r="B9" s="105">
         <v>482.54142600000006</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="103">
         <v>1.73489638128</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="104">
         <v>0.17798456403679999</v>
       </c>
       <c r="E9" s="52"/>
-      <c r="F9" s="95">
+      <c r="F9" s="94">
         <f t="shared" si="0"/>
         <v>0.17579439116722953</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="83">
         <f t="shared" si="4"/>
         <v>0.13206113639512471</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="84">
         <f t="shared" si="5"/>
         <v>9.0454274778029004E-2</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="83">
         <f>IF(I9&gt;0, ('BPV Calcs'!$B$8/12)+(I9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.66336526677316021</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K9" s="95">
         <f t="shared" si="6"/>
         <v>7.9603832012779225</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="122">
+      <c r="N9" s="121">
         <f t="shared" si="7"/>
         <v>0.14669763583368992</v>
       </c>
-      <c r="O9" s="89">
+      <c r="O9" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P9" s="90">
+      <c r="P9" s="89">
         <f t="shared" si="8"/>
         <v>0.10688908172803678</v>
       </c>
-      <c r="Q9" s="90">
+      <c r="Q9" s="89">
         <f t="shared" si="3"/>
         <v>6.5282220110941064E-2</v>
       </c>
-      <c r="R9" s="123">
+      <c r="R9" s="122">
         <f>IF(Q9&gt;0, ('BPV Calcs'!$B$8/12)+(Q9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.55412957491257986</v>
       </c>
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="102">
+      <c r="A10" s="101">
         <v>37.4</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="105">
         <v>488.65187693999997</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="103">
         <v>1.7297661752</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="104">
         <v>0.18065056371679999</v>
       </c>
       <c r="E10" s="52"/>
-      <c r="F10" s="95">
+      <c r="F10" s="94">
         <f t="shared" si="0"/>
         <v>0.17336740843776965</v>
       </c>
-      <c r="G10" s="137">
+      <c r="G10" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="83">
         <f t="shared" si="4"/>
         <v>0.13023792636472664</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="84">
         <f t="shared" si="5"/>
         <v>8.8631064747630939E-2</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="83">
         <f>IF(I10&gt;0, ('BPV Calcs'!$B$8/12)+(I10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.65545333380973458</v>
       </c>
-      <c r="K10" s="96">
+      <c r="K10" s="95">
         <f t="shared" si="6"/>
         <v>7.865440005716815</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="122">
+      <c r="N10" s="121">
         <f t="shared" si="7"/>
         <v>0.14412421839668005</v>
       </c>
-      <c r="O10" s="89">
+      <c r="O10" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="89">
         <f t="shared" si="8"/>
         <v>0.10501399883947034</v>
       </c>
-      <c r="Q10" s="90">
+      <c r="Q10" s="89">
         <f t="shared" si="3"/>
         <v>6.3407137222374621E-2</v>
       </c>
-      <c r="R10" s="123">
+      <c r="R10" s="122">
         <f>IF(Q10&gt;0, ('BPV Calcs'!$B$8/12)+(Q10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.54599253646508672</v>
       </c>
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="102">
+      <c r="A11" s="101">
         <v>38.299999999999997</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="105">
         <v>494.82034307999999</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="103">
         <v>1.7246010433599999</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="104">
         <v>0.18335905640479999</v>
       </c>
       <c r="E11" s="52"/>
-      <c r="F11" s="95">
+      <c r="F11" s="94">
         <f t="shared" si="0"/>
         <v>0.17090179823980461</v>
       </c>
-      <c r="G11" s="137">
+      <c r="G11" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="83">
         <f t="shared" si="4"/>
         <v>0.12838569841542352</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="84">
         <f t="shared" si="5"/>
         <v>8.6778836798327819E-2</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="83">
         <f>IF(I11&gt;0, ('BPV Calcs'!$B$8/12)+(I11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.64741547578814962</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="95">
         <f t="shared" si="6"/>
         <v>7.7689857094577954</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="122">
+      <c r="N11" s="121">
         <f t="shared" si="7"/>
         <v>0.14150921576045203</v>
       </c>
-      <c r="O11" s="89">
+      <c r="O11" s="88">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="89">
         <f t="shared" si="8"/>
         <v>0.10310861550514253</v>
       </c>
-      <c r="Q11" s="90">
+      <c r="Q11" s="89">
         <f t="shared" si="3"/>
         <v>6.1501753888046816E-2</v>
       </c>
-      <c r="R11" s="123">
+      <c r="R11" s="122">
         <f>IF(Q11&gt;0, ('BPV Calcs'!$B$8/12)+(Q11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.53772400735462633</v>
       </c>
       <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="102">
+      <c r="A12" s="101">
         <v>39.200000000000003</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="105">
         <v>501.04537404000001</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="103">
         <v>1.7193932244799999</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="104">
         <v>0.18611099285759999</v>
       </c>
       <c r="E12" s="52"/>
-      <c r="F12" s="95">
+      <c r="F12" s="94">
         <f t="shared" si="0"/>
         <v>0.16839248697229939</v>
       </c>
-      <c r="G12" s="137">
+      <c r="G12" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="83">
         <f t="shared" si="4"/>
         <v>0.12650064113142523</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="84">
         <f t="shared" si="5"/>
         <v>8.4893779514329526E-2</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="83">
         <f>IF(I12&gt;0, ('BPV Calcs'!$B$8/12)+(I12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63923515283328125</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="95">
         <f t="shared" si="6"/>
         <v>7.6708218339993746</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="122">
+      <c r="N12" s="121">
         <f t="shared" si="7"/>
         <v>0.13884731825649951</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P12" s="90">
+      <c r="P12" s="89">
         <f t="shared" si="8"/>
         <v>0.1011690629129371</v>
       </c>
-      <c r="Q12" s="90">
+      <c r="Q12" s="89">
         <f t="shared" si="3"/>
         <v>5.9562201295841395E-2</v>
       </c>
-      <c r="R12" s="123">
+      <c r="R12" s="122">
         <f>IF(Q12&gt;0, ('BPV Calcs'!$B$8/12)+(Q12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.52930719863115905</v>
       </c>
       <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="102">
+      <c r="A13" s="101">
         <v>40.1</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="105">
         <v>507.32696982000004</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="103">
         <v>1.71414853952</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="104">
         <v>0.1889074790576</v>
       </c>
       <c r="E13" s="52"/>
-      <c r="F13" s="95">
+      <c r="F13" s="94">
         <f t="shared" si="0"/>
         <v>0.16584166910419268</v>
       </c>
-      <c r="G13" s="137">
+      <c r="G13" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="83">
         <f t="shared" si="4"/>
         <v>0.12458440305259647</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="84">
         <f t="shared" si="5"/>
         <v>8.2977541435500762E-2</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="83">
         <f>IF(I13&gt;0, ('BPV Calcs'!$B$8/12)+(I13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63091951888607967</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="95">
         <f t="shared" si="6"/>
         <v>7.571034226632956</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="122">
+      <c r="N13" s="121">
         <f t="shared" si="7"/>
         <v>0.13614073631623833</v>
       </c>
-      <c r="O13" s="89">
+      <c r="O13" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="89">
         <f t="shared" si="8"/>
         <v>9.9196951661299826E-2</v>
       </c>
-      <c r="Q13" s="90">
+      <c r="Q13" s="89">
         <f t="shared" si="3"/>
         <v>5.7590090044204116E-2</v>
       </c>
-      <c r="R13" s="123">
+      <c r="R13" s="122">
         <f>IF(Q13&gt;0, ('BPV Calcs'!$B$8/12)+(Q13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.52074909958649518</v>
       </c>
       <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="102">
+      <c r="A14" s="101">
         <v>41</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="105">
         <v>513.66803117999996</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="103">
         <v>1.7088611675200001</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="104">
         <v>0.19174958218079999</v>
       </c>
       <c r="E14" s="52"/>
-      <c r="F14" s="95">
+      <c r="F14" s="94">
         <f t="shared" si="0"/>
         <v>0.16324517830239926</v>
       </c>
-      <c r="G14" s="137">
+      <c r="G14" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="83">
         <f t="shared" si="4"/>
         <v>0.12263385432548642</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="84">
         <f t="shared" si="5"/>
         <v>8.1026992708390699E-2</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="83">
         <f>IF(I14&gt;0, ('BPV Calcs'!$B$8/12)+(I14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.62245499175344854</v>
       </c>
-      <c r="K14" s="96">
+      <c r="K14" s="95">
         <f t="shared" si="6"/>
         <v>7.4694599010413825</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="122">
+      <c r="N14" s="121">
         <f t="shared" si="7"/>
         <v>0.1333850924260572</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="89">
         <f t="shared" si="8"/>
         <v>9.718909213911324E-2</v>
       </c>
-      <c r="Q14" s="90">
+      <c r="Q14" s="89">
         <f t="shared" si="3"/>
         <v>5.558223052201753E-2</v>
       </c>
-      <c r="R14" s="123">
+      <c r="R14" s="122">
         <f>IF(Q14&gt;0, ('BPV Calcs'!$B$8/12)+(Q14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.51203586870543893</v>
       </c>
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="102">
+      <c r="A15" s="101">
         <v>41.9</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="105">
         <v>520.06565735999993</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="103">
         <v>1.7035330488</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="104">
         <v>0.19463846641919999</v>
       </c>
       <c r="E15" s="52"/>
-      <c r="F15" s="95">
+      <c r="F15" s="94">
         <f t="shared" si="0"/>
         <v>0.16060302380499611</v>
       </c>
-      <c r="G15" s="137">
+      <c r="G15" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="83">
         <f t="shared" si="4"/>
         <v>0.12064900188996915</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="84">
         <f t="shared" si="5"/>
         <v>7.9042140272873429E-2</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="83">
         <f>IF(I15&gt;0, ('BPV Calcs'!$B$8/12)+(I15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.61384160155140144</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="95">
         <f t="shared" si="6"/>
         <v>7.3660992186168173</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="122">
+      <c r="N15" s="121">
         <f t="shared" si="7"/>
         <v>0.13058032854768797</v>
       </c>
-      <c r="O15" s="89">
+      <c r="O15" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="89">
         <f t="shared" si="8"/>
         <v>9.5145442057644081E-2</v>
       </c>
-      <c r="Q15" s="90">
+      <c r="Q15" s="89">
         <f t="shared" si="3"/>
         <v>5.3538580440548371E-2</v>
       </c>
-      <c r="R15" s="123">
+      <c r="R15" s="122">
         <f>IF(Q15&gt;0, ('BPV Calcs'!$B$8/12)+(Q15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.50316732247341056</v>
       </c>
       <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="102">
+      <c r="A16" s="101">
         <v>42.8</v>
       </c>
-      <c r="B16" s="106">
+      <c r="B16" s="105">
         <v>526.52129874000002</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="103">
         <v>1.6981603027200001</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="104">
         <v>0.19757531536799999</v>
       </c>
       <c r="E16" s="52"/>
-      <c r="F16" s="95">
+      <c r="F16" s="94">
         <f t="shared" si="0"/>
         <v>0.15791193997714462</v>
       </c>
-      <c r="G16" s="137">
+      <c r="G16" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="83">
         <f t="shared" si="4"/>
         <v>0.11862739251960797</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="84">
         <f t="shared" si="5"/>
         <v>7.7020530902512263E-2</v>
       </c>
-      <c r="J16" s="84">
+      <c r="J16" s="83">
         <f>IF(I16&gt;0, ('BPV Calcs'!$B$8/12)+(I16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.60506870235172006</v>
       </c>
-      <c r="K16" s="96">
+      <c r="K16" s="95">
         <f t="shared" si="6"/>
         <v>7.2608244282206407</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="122">
+      <c r="N16" s="121">
         <f t="shared" si="7"/>
         <v>0.12772299193084816</v>
       </c>
-      <c r="O16" s="89">
+      <c r="O16" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P16" s="89">
         <f t="shared" si="8"/>
         <v>9.3063485621017156E-2</v>
       </c>
-      <c r="Q16" s="90">
+      <c r="Q16" s="89">
         <f t="shared" si="3"/>
         <v>5.1456624003921446E-2</v>
       </c>
-      <c r="R16" s="123">
+      <c r="R16" s="122">
         <f>IF(Q16&gt;0, ('BPV Calcs'!$B$8/12)+(Q16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.49413254343823371</v>
       </c>
       <c r="S16" s="52"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="102">
+      <c r="A17" s="101">
         <v>43.7</v>
       </c>
-      <c r="B17" s="106">
+      <c r="B17" s="105">
         <v>533.03640570000005</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="103">
         <v>1.69274292928</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="104">
         <v>0.20056135142879999</v>
       </c>
       <c r="E17" s="52"/>
-      <c r="F17" s="95">
+      <c r="F17" s="94">
         <f t="shared" si="0"/>
         <v>0.15517073555268265</v>
       </c>
-      <c r="G17" s="137">
+      <c r="G17" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="83">
         <f t="shared" si="4"/>
         <v>0.11656813130551485</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="84">
         <f t="shared" si="5"/>
         <v>7.4961269688419152E-2</v>
       </c>
-      <c r="J17" s="84">
+      <c r="J17" s="83">
         <f>IF(I17&gt;0, ('BPV Calcs'!$B$8/12)+(I17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.59613241064180122</v>
       </c>
-      <c r="K17" s="96">
+      <c r="K17" s="95">
         <f t="shared" si="6"/>
         <v>7.1535889277016143</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="122">
+      <c r="N17" s="121">
         <f t="shared" si="7"/>
         <v>0.1248117746228357</v>
       </c>
-      <c r="O17" s="89">
+      <c r="O17" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="89">
         <f t="shared" si="8"/>
         <v>9.0942269808671011E-2</v>
       </c>
-      <c r="Q17" s="90">
+      <c r="Q17" s="89">
         <f t="shared" si="3"/>
         <v>4.9335408191575301E-2</v>
       </c>
-      <c r="R17" s="123">
+      <c r="R17" s="122">
         <f>IF(Q17&gt;0, ('BPV Calcs'!$B$8/12)+(Q17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.48492739590809608</v>
       </c>
       <c r="S17" s="52"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="102">
+      <c r="A18" s="101">
         <v>44.6</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="105">
         <v>539.61097824000001</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="103">
         <v>1.6872809284800001</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="104">
         <v>0.20359789401919998</v>
       </c>
       <c r="E18" s="52"/>
-      <c r="F18" s="95">
+      <c r="F18" s="94">
         <f t="shared" si="0"/>
         <v>0.15237817442287846</v>
       </c>
-      <c r="G18" s="137">
+      <c r="G18" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="83">
         <f t="shared" si="4"/>
         <v>0.11447028965194368</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="84">
         <f t="shared" si="5"/>
         <v>7.2863428034847966E-2</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="83">
         <f>IF(I18&gt;0, ('BPV Calcs'!$B$8/12)+(I18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.5870286967228332</v>
       </c>
-      <c r="K18" s="96">
+      <c r="K18" s="95">
         <f t="shared" si="6"/>
         <v>7.0443443606739979</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="122">
+      <c r="N18" s="121">
         <f t="shared" si="7"/>
         <v>0.12184531722222625</v>
       </c>
-      <c r="O18" s="89">
+      <c r="O18" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P18" s="90">
+      <c r="P18" s="89">
         <f t="shared" si="8"/>
         <v>8.8780804112686948E-2</v>
       </c>
-      <c r="Q18" s="90">
+      <c r="Q18" s="89">
         <f t="shared" si="3"/>
         <v>4.7173942495591238E-2</v>
       </c>
-      <c r="R18" s="123">
+      <c r="R18" s="122">
         <f>IF(Q18&gt;0, ('BPV Calcs'!$B$8/12)+(Q18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.47554758151247428</v>
       </c>
       <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="102">
+      <c r="A19" s="101">
         <v>45.5</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="105">
         <v>546.24646674000007</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="103">
         <v>1.6817723599999999</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="104">
         <v>0.20668630136319999</v>
       </c>
       <c r="E19" s="52"/>
-      <c r="F19" s="95">
+      <c r="F19" s="94">
         <f t="shared" si="0"/>
         <v>0.14953184761109797</v>
       </c>
-      <c r="G19" s="137">
+      <c r="G19" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="83">
         <f t="shared" si="4"/>
         <v>0.11233205787549259</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="84">
         <f t="shared" si="5"/>
         <v>7.0725196258396877E-2</v>
       </c>
-      <c r="J19" s="84">
+      <c r="J19" s="83">
         <f>IF(I19&gt;0, ('BPV Calcs'!$B$8/12)+(I19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.57774970736149589</v>
       </c>
-      <c r="K19" s="96">
+      <c r="K19" s="95">
         <f t="shared" si="6"/>
         <v>6.9329964883379507</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="122">
+      <c r="N19" s="121">
         <f t="shared" si="7"/>
         <v>0.11882104131137136</v>
       </c>
-      <c r="O19" s="89">
+      <c r="O19" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P19" s="90">
+      <c r="P19" s="89">
         <f t="shared" si="8"/>
         <v>8.6577209806845648E-2</v>
       </c>
-      <c r="Q19" s="90">
+      <c r="Q19" s="89">
         <f t="shared" si="3"/>
         <v>4.4970348189749938E-2</v>
       </c>
-      <c r="R19" s="123">
+      <c r="R19" s="122">
         <f>IF(Q19&gt;0, ('BPV Calcs'!$B$8/12)+(Q19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.46598494740246116</v>
       </c>
       <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="102">
+      <c r="A20" s="101">
         <v>46.4</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="105">
         <v>552.93997044000002</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="103">
         <v>1.6762152835199999</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="104">
         <v>0.2098279704912</v>
       </c>
       <c r="E20" s="52"/>
-      <c r="F20" s="95">
+      <c r="F20" s="94">
         <f t="shared" si="0"/>
         <v>0.14662924681830652</v>
       </c>
-      <c r="G20" s="137">
+      <c r="G20" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="83">
         <f t="shared" si="4"/>
         <v>0.11015155167929216</v>
       </c>
-      <c r="I20" s="85">
+      <c r="I20" s="84">
         <f t="shared" si="5"/>
         <v>6.8544690062196462E-2</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="83">
         <f>IF(I20&gt;0, ('BPV Calcs'!$B$8/12)+(I20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.56828726553470044</v>
       </c>
-      <c r="K20" s="96">
+      <c r="K20" s="95">
         <f t="shared" si="6"/>
         <v>6.8194471864164052</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="122">
+      <c r="N20" s="121">
         <f t="shared" si="7"/>
         <v>0.11573626116593252</v>
       </c>
-      <c r="O20" s="89">
+      <c r="O20" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P20" s="90">
+      <c r="P20" s="89">
         <f t="shared" si="8"/>
         <v>8.4329529977481194E-2</v>
       </c>
-      <c r="Q20" s="90">
+      <c r="Q20" s="89">
         <f t="shared" si="3"/>
         <v>4.2722668360385484E-2</v>
       </c>
-      <c r="R20" s="123">
+      <c r="R20" s="122">
         <f>IF(Q20&gt;0, ('BPV Calcs'!$B$8/12)+(Q20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.45623100142987749</v>
       </c>
       <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="102">
+      <c r="A21" s="101">
         <v>47.3</v>
       </c>
-      <c r="B21" s="106">
+      <c r="B21" s="105">
         <v>559.69439009999996</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="103">
         <v>1.6706096990399999</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="104">
         <v>0.21302437604639998</v>
       </c>
       <c r="E21" s="52"/>
-      <c r="F21" s="95">
+      <c r="F21" s="94">
         <f t="shared" si="0"/>
         <v>0.14366890189539364</v>
       </c>
-      <c r="G21" s="137">
+      <c r="G21" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="83">
         <f t="shared" si="4"/>
         <v>0.10792766665061956</v>
       </c>
-      <c r="I21" s="85">
+      <c r="I21" s="84">
         <f t="shared" si="5"/>
         <v>6.6320805033523861E-2</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="83">
         <f>IF(I21&gt;0, ('BPV Calcs'!$B$8/12)+(I21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.55863657857496385</v>
       </c>
-      <c r="K21" s="96">
+      <c r="K21" s="95">
         <f t="shared" si="6"/>
         <v>6.7036389428995662</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="122">
+      <c r="N21" s="121">
         <f t="shared" si="7"/>
         <v>0.11258936129657487</v>
       </c>
-      <c r="O21" s="89">
+      <c r="O21" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P21" s="90">
+      <c r="P21" s="89">
         <f t="shared" si="8"/>
         <v>8.2036587521973195E-2</v>
       </c>
-      <c r="Q21" s="90">
+      <c r="Q21" s="89">
         <f t="shared" si="3"/>
         <v>4.0429725904877485E-2</v>
       </c>
-      <c r="R21" s="123">
+      <c r="R21" s="122">
         <f>IF(Q21&gt;0, ('BPV Calcs'!$B$8/12)+(Q21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.44628063548492347</v>
       </c>
       <c r="S21" s="52"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="102">
+      <c r="A22" s="101">
         <v>48.2</v>
       </c>
-      <c r="B22" s="106">
+      <c r="B22" s="105">
         <v>566.51117609999994</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="103">
         <v>1.66495172592</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="104">
         <v>0.21627710909119999</v>
       </c>
       <c r="E22" s="52"/>
-      <c r="F22" s="95">
+      <c r="F22" s="94">
         <f t="shared" si="0"/>
         <v>0.14064697985759764</v>
       </c>
-      <c r="G22" s="137">
+      <c r="G22" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="83">
         <f t="shared" si="4"/>
         <v>0.10565752335560866</v>
       </c>
-      <c r="I22" s="85">
+      <c r="I22" s="84">
         <f t="shared" si="5"/>
         <v>6.4050661738512954E-2</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="83">
         <f>IF(I22&gt;0, ('BPV Calcs'!$B$8/12)+(I22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.54878515100050351</v>
       </c>
-      <c r="K22" s="96">
+      <c r="K22" s="95">
         <f t="shared" si="6"/>
         <v>6.5854218120060422</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="122">
+      <c r="N22" s="121">
         <f t="shared" si="7"/>
         <v>0.10937627096550176</v>
       </c>
-      <c r="O22" s="89">
+      <c r="O22" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P22" s="90">
+      <c r="P22" s="89">
         <f t="shared" si="8"/>
         <v>7.9695416356904122E-2</v>
       </c>
-      <c r="Q22" s="90">
+      <c r="Q22" s="89">
         <f t="shared" si="3"/>
         <v>3.8088554739808413E-2</v>
       </c>
-      <c r="R22" s="123">
+      <c r="R22" s="122">
         <f>IF(Q22&gt;0, ('BPV Calcs'!$B$8/12)+(Q22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.43612097806471545</v>
       </c>
       <c r="S22" s="52"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="102">
+      <c r="A23" s="101">
         <v>49.1</v>
       </c>
-      <c r="B23" s="106">
+      <c r="B23" s="105">
         <v>573.38742767999997</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="103">
         <v>1.6592413641600001</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="104">
         <v>0.21958774128479999</v>
       </c>
       <c r="E23" s="52"/>
-      <c r="F23" s="95">
+      <c r="F23" s="94">
         <f t="shared" si="0"/>
         <v>0.13756180288548553</v>
       </c>
-      <c r="G23" s="137">
+      <c r="G23" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="83">
         <f t="shared" si="4"/>
         <v>0.10333986137440462</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="84">
         <f t="shared" si="5"/>
         <v>6.1732999757308914E-2</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="83">
         <f>IF(I23&gt;0, ('BPV Calcs'!$B$8/12)+(I23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.53872751314121492</v>
       </c>
-      <c r="K23" s="96">
+      <c r="K23" s="95">
         <f t="shared" si="6"/>
         <v>6.4647301576945786</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="122">
+      <c r="N23" s="121">
         <f t="shared" si="7"/>
         <v>0.10609514903040819</v>
       </c>
-      <c r="O23" s="89">
+      <c r="O23" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P23" s="90">
+      <c r="P23" s="89">
         <f t="shared" si="8"/>
         <v>7.730467496092501E-2</v>
       </c>
-      <c r="Q23" s="90">
+      <c r="Q23" s="89">
         <f t="shared" si="3"/>
         <v>3.56978133438293E-2</v>
       </c>
-      <c r="R23" s="123">
+      <c r="R23" s="122">
         <f>IF(Q23&gt;0, ('BPV Calcs'!$B$8/12)+(Q23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.42574620755418724</v>
       </c>
       <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="102">
+      <c r="A24" s="101">
         <v>50</v>
       </c>
-      <c r="B24" s="106">
+      <c r="B24" s="105">
         <v>580.32604560000004</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="103">
         <v>1.6534766734399999</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="104">
         <v>0.22295801891519998</v>
       </c>
       <c r="E24" s="52"/>
-      <c r="F24" s="95">
+      <c r="F24" s="94">
         <f t="shared" si="0"/>
         <v>0.13441045075864813</v>
       </c>
-      <c r="G24" s="137">
+      <c r="G24" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="83">
         <f t="shared" si="4"/>
         <v>0.10097248696451551</v>
       </c>
-      <c r="I24" s="85">
+      <c r="I24" s="84">
         <f t="shared" si="5"/>
         <v>5.93656253474198E-2</v>
       </c>
-      <c r="J24" s="84">
+      <c r="J24" s="83">
         <f>IF(I24&gt;0, ('BPV Calcs'!$B$8/12)+(I24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.52845414511554523</v>
       </c>
-      <c r="K24" s="96">
+      <c r="K24" s="95">
         <f t="shared" si="6"/>
         <v>6.3414497413865423</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="122">
+      <c r="N24" s="121">
         <f t="shared" si="7"/>
         <v>0.10274285797407841</v>
       </c>
-      <c r="O24" s="89">
+      <c r="O24" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P24" s="90">
+      <c r="P24" s="89">
         <f t="shared" si="8"/>
         <v>7.4862077228113361E-2</v>
       </c>
-      <c r="Q24" s="90">
+      <c r="Q24" s="89">
         <f t="shared" si="3"/>
         <v>3.3255215611017651E-2</v>
       </c>
-      <c r="R24" s="123">
+      <c r="R24" s="122">
         <f>IF(Q24&gt;0, ('BPV Calcs'!$B$8/12)+(Q24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.41514640325495267</v>
       </c>
       <c r="S24" s="52"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="102">
+      <c r="A25" s="101">
         <v>50.9</v>
       </c>
-      <c r="B25" s="106">
+      <c r="B25" s="105">
         <v>587.32702986000004</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="103">
         <v>1.6476576537600001</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="104">
         <v>0.22638970767359998</v>
       </c>
       <c r="E25" s="52"/>
-      <c r="F25" s="95">
+      <c r="F25" s="94">
         <f t="shared" si="0"/>
         <v>0.13119105233236464</v>
       </c>
-      <c r="G25" s="137">
+      <c r="G25" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="83">
         <f t="shared" si="4"/>
         <v>9.8553994475302747E-2</v>
       </c>
-      <c r="I25" s="85">
+      <c r="I25" s="84">
         <f t="shared" si="5"/>
         <v>5.6947132858207038E-2</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="83">
         <f>IF(I25&gt;0, ('BPV Calcs'!$B$8/12)+(I25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.51795894701540002</v>
       </c>
-      <c r="K25" s="96">
+      <c r="K25" s="95">
         <f t="shared" si="6"/>
         <v>6.2155073641848002</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="122">
+      <c r="N25" s="121">
         <f t="shared" si="7"/>
         <v>9.9317342419351473E-2</v>
       </c>
-      <c r="O25" s="89">
+      <c r="O25" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P25" s="90">
+      <c r="P25" s="89">
         <f t="shared" si="8"/>
         <v>7.2366125538033149E-2</v>
       </c>
-      <c r="Q25" s="90">
+      <c r="Q25" s="89">
         <f t="shared" si="3"/>
         <v>3.0759263920937439E-2</v>
       </c>
-      <c r="R25" s="123">
+      <c r="R25" s="122">
         <f>IF(Q25&gt;0, ('BPV Calcs'!$B$8/12)+(Q25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.40431506615027929</v>
       </c>
       <c r="S25" s="52"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="102">
+      <c r="A26" s="101">
         <v>51.8</v>
       </c>
-      <c r="B26" s="106">
+      <c r="B26" s="105">
         <v>594.39038045999996</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="103">
         <v>1.6417804244800001</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="104">
         <v>0.22988470907359998</v>
       </c>
       <c r="E26" s="52"/>
-      <c r="F26" s="95">
+      <c r="F26" s="94">
         <f t="shared" si="0"/>
         <v>0.12789925363670013</v>
       </c>
-      <c r="G26" s="137">
+      <c r="G26" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="83">
         <f t="shared" si="4"/>
         <v>9.6081113095828549E-2</v>
       </c>
-      <c r="I26" s="85">
+      <c r="I26" s="84">
         <f t="shared" si="5"/>
         <v>5.4474251478732839E-2</v>
       </c>
-      <c r="J26" s="84">
+      <c r="J26" s="83">
         <f>IF(I26&gt;0, ('BPV Calcs'!$B$8/12)+(I26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.50722772495392887</v>
       </c>
-      <c r="K26" s="96">
+      <c r="K26" s="95">
         <f t="shared" si="6"/>
         <v>6.0867326994471469</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="122">
+      <c r="N26" s="121">
         <f t="shared" si="7"/>
         <v>9.5813964526532028E-2</v>
       </c>
-      <c r="O26" s="89">
+      <c r="O26" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P26" s="90">
+      <c r="P26" s="89">
         <f t="shared" si="8"/>
         <v>6.9813440596782211E-2</v>
       </c>
-      <c r="Q26" s="90">
+      <c r="Q26" s="89">
         <f t="shared" si="3"/>
         <v>2.8206578979686502E-2</v>
       </c>
-      <c r="R26" s="123">
+      <c r="R26" s="122">
         <f>IF(Q26&gt;0, ('BPV Calcs'!$B$8/12)+(Q26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.39323753158476704</v>
       </c>
       <c r="S26" s="52"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="102">
+      <c r="A27" s="101">
         <v>52.7</v>
       </c>
-      <c r="B27" s="106">
+      <c r="B27" s="105">
         <v>601.51754778000009</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="103">
         <v>1.6358430452799999</v>
       </c>
-      <c r="D27" s="105">
+      <c r="D27" s="104">
         <v>0.23344498283839998</v>
       </c>
       <c r="E27" s="52"/>
-      <c r="F27" s="95">
+      <c r="F27" s="94">
         <f t="shared" si="0"/>
         <v>0.12453171014032675</v>
       </c>
-      <c r="G27" s="137">
+      <c r="G27" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="83">
         <f t="shared" si="4"/>
         <v>9.3551330330643362E-2</v>
       </c>
-      <c r="I27" s="85">
+      <c r="I27" s="84">
         <f t="shared" si="5"/>
         <v>5.1944468713547652E-2</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="83">
         <f>IF(I27&gt;0, ('BPV Calcs'!$B$8/12)+(I27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.49624957580135731</v>
       </c>
-      <c r="K27" s="96">
+      <c r="K27" s="95">
         <f t="shared" si="6"/>
         <v>5.9549949096162873</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="122">
+      <c r="N27" s="121">
         <f t="shared" si="7"/>
         <v>9.2229125421012484E-2</v>
       </c>
-      <c r="O27" s="89">
+      <c r="O27" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P27" s="90">
+      <c r="P27" s="89">
         <f t="shared" si="8"/>
         <v>6.7201400137138059E-2</v>
       </c>
-      <c r="Q27" s="90">
+      <c r="Q27" s="89">
         <f t="shared" si="3"/>
         <v>2.5594538520042349E-2</v>
       </c>
-      <c r="R27" s="123">
+      <c r="R27" s="122">
         <f>IF(Q27&gt;0, ('BPV Calcs'!$B$8/12)+(Q27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.38190242006722691</v>
       </c>
       <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="102">
+      <c r="A28" s="101">
         <v>53.6</v>
       </c>
-      <c r="B28" s="106">
+      <c r="B28" s="105">
         <v>608.70708144000002</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="103">
         <v>1.6298455161600001</v>
       </c>
-      <c r="D28" s="105">
+      <c r="D28" s="104">
         <v>0.23707262451360001</v>
       </c>
       <c r="E28" s="52"/>
-      <c r="F28" s="95">
+      <c r="F28" s="94">
         <f t="shared" si="0"/>
         <v>0.12108614470086151</v>
       </c>
-      <c r="G28" s="137">
+      <c r="G28" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H28" s="84">
+      <c r="H28" s="83">
         <f t="shared" si="4"/>
         <v>9.0962935533526718E-2</v>
       </c>
-      <c r="I28" s="85">
+      <c r="I28" s="84">
         <f t="shared" si="5"/>
         <v>4.9356073916431008E-2</v>
       </c>
-      <c r="J28" s="84">
+      <c r="J28" s="83">
         <f>IF(I28&gt;0, ('BPV Calcs'!$B$8/12)+(I28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.48501707610235389</v>
       </c>
-      <c r="K28" s="96">
+      <c r="K28" s="95">
         <f t="shared" si="6"/>
         <v>5.8202049132282472</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="122">
+      <c r="N28" s="121">
         <f t="shared" si="7"/>
         <v>8.8560323374262145E-2</v>
       </c>
-      <c r="O28" s="89">
+      <c r="O28" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P28" s="90">
+      <c r="P28" s="89">
         <f t="shared" si="8"/>
         <v>6.4528181311282753E-2</v>
       </c>
-      <c r="Q28" s="90">
+      <c r="Q28" s="89">
         <f t="shared" si="3"/>
         <v>2.2921319694187044E-2</v>
       </c>
-      <c r="R28" s="123">
+      <c r="R28" s="122">
         <f>IF(Q28&gt;0, ('BPV Calcs'!$B$8/12)+(Q28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.37030182123653899</v>
       </c>
       <c r="S28" s="52"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="102">
+      <c r="A29" s="101">
         <v>54.5</v>
       </c>
-      <c r="B29" s="106">
+      <c r="B29" s="105">
         <v>615.96188219999999</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="103">
         <v>1.6237820161600001</v>
       </c>
-      <c r="D29" s="105">
+      <c r="D29" s="104">
         <v>0.2407698072576</v>
       </c>
       <c r="E29" s="52"/>
-      <c r="F29" s="95">
+      <c r="F29" s="94">
         <f t="shared" si="0"/>
         <v>0.11755644588442445</v>
       </c>
-      <c r="G29" s="137">
+      <c r="G29" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="83">
         <f t="shared" si="4"/>
         <v>8.8311337642739754E-2</v>
       </c>
-      <c r="I29" s="85">
+      <c r="I29" s="84">
         <f t="shared" si="5"/>
         <v>4.6704476025644044E-2</v>
       </c>
-      <c r="J29" s="84">
+      <c r="J29" s="83">
         <f>IF(I29&gt;0, ('BPV Calcs'!$B$8/12)+(I29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.47351030265986327</v>
       </c>
-      <c r="K29" s="96">
+      <c r="K29" s="95">
         <f t="shared" si="6"/>
         <v>5.6821236319183592</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="122">
+      <c r="N29" s="121">
         <f t="shared" si="7"/>
         <v>8.4801071831599392E-2</v>
       </c>
-      <c r="O29" s="89">
+      <c r="O29" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P29" s="90">
+      <c r="P29" s="89">
         <f t="shared" si="8"/>
         <v>6.1789057786241962E-2</v>
       </c>
-      <c r="Q29" s="90">
+      <c r="Q29" s="89">
         <f t="shared" si="3"/>
         <v>2.0182196169146252E-2</v>
       </c>
-      <c r="R29" s="123">
+      <c r="R29" s="122">
         <f>IF(Q29&gt;0, ('BPV Calcs'!$B$8/12)+(Q29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.35841522487773503</v>
       </c>
       <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="102">
+      <c r="A30" s="101">
         <v>55.4</v>
       </c>
-      <c r="B30" s="106">
+      <c r="B30" s="105">
         <v>623.28049967999993</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="103">
         <v>1.6176544856000001</v>
       </c>
-      <c r="D30" s="105">
+      <c r="D30" s="104">
         <v>0.24453885945439999</v>
       </c>
       <c r="E30" s="52"/>
-      <c r="F30" s="95">
+      <c r="F30" s="94">
         <f t="shared" si="0"/>
         <v>0.11394121977368245</v>
       </c>
-      <c r="G30" s="137">
+      <c r="G30" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="83">
         <f t="shared" si="4"/>
         <v>8.5595489512774417E-2</v>
       </c>
-      <c r="I30" s="85">
+      <c r="I30" s="84">
         <f t="shared" si="5"/>
         <v>4.3988627895678707E-2</v>
       </c>
-      <c r="J30" s="84">
+      <c r="J30" s="83">
         <f>IF(I30&gt;0, ('BPV Calcs'!$B$8/12)+(I30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.46172471132103166</v>
       </c>
-      <c r="K30" s="96">
+      <c r="K30" s="95">
         <f t="shared" si="6"/>
         <v>5.5406965358523799</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="122">
+      <c r="N30" s="121">
         <f t="shared" si="7"/>
         <v>8.0949764895709625E-2</v>
       </c>
-      <c r="O30" s="89">
+      <c r="O30" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P30" s="90">
+      <c r="P30" s="89">
         <f t="shared" si="8"/>
         <v>5.8982859448480231E-2</v>
       </c>
-      <c r="Q30" s="90">
+      <c r="Q30" s="89">
         <f t="shared" si="3"/>
         <v>1.7375997831384521E-2</v>
       </c>
-      <c r="R30" s="123">
+      <c r="R30" s="122">
         <f>IF(Q30&gt;0, ('BPV Calcs'!$B$8/12)+(Q30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.34623755321058242</v>
       </c>
       <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="102">
+      <c r="A31" s="101">
         <v>56.3</v>
       </c>
-      <c r="B31" s="106">
+      <c r="B31" s="105">
         <v>630.66438426000002</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="103">
         <v>1.6114590438399998</v>
       </c>
-      <c r="D31" s="105">
+      <c r="D31" s="104">
         <v>0.24838222590720002</v>
       </c>
       <c r="E31" s="52"/>
-      <c r="F31" s="95">
+      <c r="F31" s="94">
         <f t="shared" si="0"/>
         <v>0.11023518674553594</v>
       </c>
-      <c r="G31" s="137">
+      <c r="G31" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="83">
         <f t="shared" si="4"/>
         <v>8.2811424958921173E-2</v>
       </c>
-      <c r="I31" s="85">
+      <c r="I31" s="84">
         <f t="shared" si="5"/>
         <v>4.1204563341825463E-2</v>
       </c>
-      <c r="J31" s="84">
+      <c r="J31" s="83">
         <f>IF(I31&gt;0, ('BPV Calcs'!$B$8/12)+(I31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.44964309058141411</v>
       </c>
-      <c r="K31" s="96">
+      <c r="K31" s="95">
         <f t="shared" si="6"/>
         <v>5.3957170869769691</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="122">
+      <c r="N31" s="121">
         <f t="shared" si="7"/>
         <v>7.7000755915053343E-2</v>
       </c>
-      <c r="O31" s="89">
+      <c r="O31" s="88">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P31" s="90">
+      <c r="P31" s="89">
         <f t="shared" si="8"/>
         <v>5.6105471948134568E-2</v>
       </c>
-      <c r="Q31" s="90">
+      <c r="Q31" s="89">
         <f t="shared" si="3"/>
         <v>1.4498610331038858E-2</v>
       </c>
-      <c r="R31" s="123">
+      <c r="R31" s="122">
         <f>IF(Q31&gt;0, ('BPV Calcs'!$B$8/12)+(Q31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.33375095175876668</v>
       </c>
       <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="102">
+      <c r="A32" s="101">
         <v>57.2</v>
       </c>
-      <c r="B32" s="106">
+      <c r="B32" s="105">
         <v>638.11353594000002</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="103">
         <v>1.60519375056</v>
       </c>
-      <c r="D32" s="105">
+      <c r="D32" s="104">
         <v>0.25230250664479997</v>
       </c>
       <c r="E32" s="52"/>
-      <c r="F32" s="95">
+      <c r="F32" s="94">
         <f t="shared" si="0"/>
         <v>0.10643407956180023</v>
       </c>
-      <c r="G32" s="137">
+      <c r="G32" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H32" s="84">
+      <c r="H32" s="83">
         <f t="shared" si="4"/>
         <v>7.9955938325298792E-2</v>
       </c>
-      <c r="I32" s="85">
+      <c r="I32" s="84">
         <f t="shared" si="5"/>
         <v>3.8349076708203082E-2</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="83">
         <f>IF(I32&gt;0, ('BPV Calcs'!$B$8/12)+(I32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.4372515292985677</v>
       </c>
-      <c r="K32" s="96">
+      <c r="K32" s="95">
         <f t="shared" si="6"/>
         <v>5.2470183515828124</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="122">
+      <c r="N32" s="121">
         <f t="shared" si="7"/>
         <v>7.2949435155999456E-2</v>
       </c>
-      <c r="O32" s="89">
+      <c r="O32" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P32" s="90">
+      <c r="P32" s="89">
         <f t="shared" si="8"/>
         <v>5.3153536470374449E-2</v>
       </c>
-      <c r="Q32" s="90">
+      <c r="Q32" s="89">
         <f t="shared" si="3"/>
         <v>1.1546674853278739E-2</v>
       </c>
-      <c r="R32" s="123">
+      <c r="R32" s="122">
         <f>IF(Q32&gt;0, ('BPV Calcs'!$B$8/12)+(Q32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.32094084473708895</v>
       </c>
       <c r="S32" s="52"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="102">
+      <c r="A33" s="101">
         <v>58.1</v>
       </c>
-      <c r="B33" s="106">
+      <c r="B33" s="105">
         <v>645.62795472000005</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="103">
         <v>1.5988547251199998</v>
       </c>
-      <c r="D33" s="105">
+      <c r="D33" s="104">
         <v>0.25630243751839998</v>
       </c>
       <c r="E33" s="52"/>
-      <c r="F33" s="95">
+      <c r="F33" s="94">
         <f t="shared" si="0"/>
         <v>0.10253210256655709</v>
       </c>
-      <c r="G33" s="137">
+      <c r="G33" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H33" s="84">
+      <c r="H33" s="83">
         <f t="shared" si="4"/>
         <v>7.7024675770458517E-2</v>
       </c>
-      <c r="I33" s="85">
+      <c r="I33" s="84">
         <f t="shared" si="5"/>
         <v>3.5417814153362807E-2</v>
       </c>
-      <c r="J33" s="84">
+      <c r="J33" s="83">
         <f>IF(I33&gt;0, ('BPV Calcs'!$B$8/12)+(I33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.42453113370759338</v>
       </c>
-      <c r="K33" s="96">
+      <c r="K33" s="95">
         <f t="shared" si="6"/>
         <v>5.0943736044911203</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="122">
+      <c r="N33" s="121">
         <f t="shared" si="7"/>
         <v>6.8789593883226779E-2</v>
       </c>
-      <c r="O33" s="89">
+      <c r="O33" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P33" s="90">
+      <c r="P33" s="89">
         <f t="shared" si="8"/>
         <v>5.0122529111229636E-2</v>
       </c>
-      <c r="Q33" s="90">
+      <c r="Q33" s="89">
         <f t="shared" si="3"/>
         <v>8.5156674941339258E-3</v>
       </c>
-      <c r="R33" s="123">
+      <c r="R33" s="122">
         <f>IF(Q33&gt;0, ('BPV Calcs'!$B$8/12)+(Q33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.30778760038379444</v>
       </c>
       <c r="S33" s="52"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="102">
+      <c r="A34" s="101">
         <v>59</v>
       </c>
-      <c r="B34" s="106">
+      <c r="B34" s="105">
         <v>653.21054135999998</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="103">
         <v>1.5924400272000001</v>
       </c>
-      <c r="D34" s="105">
+      <c r="D34" s="104">
         <v>0.26038490960479999</v>
       </c>
       <c r="E34" s="52"/>
-      <c r="F34" s="95">
+      <c r="F34" s="94">
         <f t="shared" si="0"/>
         <v>9.8524459836365458E-2</v>
       </c>
-      <c r="G34" s="137">
+      <c r="G34" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H34" s="84">
+      <c r="H34" s="83">
         <f t="shared" si="4"/>
         <v>7.4014034476952761E-2</v>
       </c>
-      <c r="I34" s="85">
+      <c r="I34" s="84">
         <f t="shared" si="5"/>
         <v>3.2407172859857052E-2</v>
       </c>
-      <c r="J34" s="84">
+      <c r="J34" s="83">
         <f>IF(I34&gt;0, ('BPV Calcs'!$B$8/12)+(I34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.41146626915880763</v>
       </c>
-      <c r="K34" s="96">
+      <c r="K34" s="95">
         <f t="shared" si="6"/>
         <v>4.9375952299056918</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="122">
+      <c r="N34" s="121">
         <f t="shared" si="7"/>
         <v>6.4516045601971481E-2</v>
       </c>
-      <c r="O34" s="89">
+      <c r="O34" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P34" s="90">
+      <c r="P34" s="89">
         <f t="shared" si="8"/>
         <v>4.7008670807325716E-2</v>
       </c>
-      <c r="Q34" s="90">
+      <c r="Q34" s="89">
         <f t="shared" si="3"/>
         <v>5.4018091902300058E-3</v>
       </c>
-      <c r="R34" s="123">
+      <c r="R34" s="122">
         <f>IF(Q34&gt;0, ('BPV Calcs'!$B$8/12)+(Q34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.29427481921907328</v>
       </c>
       <c r="S34" s="52"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="102">
+      <c r="A35" s="101">
         <v>59.9</v>
       </c>
-      <c r="B35" s="106">
+      <c r="B35" s="105">
         <v>660.85839510000005</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="103">
         <v>1.58594577616</v>
       </c>
-      <c r="D35" s="105">
+      <c r="D35" s="104">
         <v>0.26455302741599995</v>
       </c>
       <c r="E35" s="52"/>
-      <c r="F35" s="95">
+      <c r="F35" s="94">
         <f t="shared" si="0"/>
         <v>9.4404755900095283E-2</v>
       </c>
-      <c r="G35" s="137">
+      <c r="G35" s="136">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="83">
         <f t="shared" si="4"/>
         <v>7.0919210007167707E-2</v>
       </c>
-      <c r="I35" s="85">
+      <c r="I35" s="84">
         <f t="shared" si="5"/>
         <v>2.9312348390071997E-2</v>
       </c>
-      <c r="J35" s="84">
+      <c r="J35" s="83">
         <f>IF(I35&gt;0, ('BPV Calcs'!$B$8/12)+(I35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.39803608649731681</v>
       </c>
-      <c r="K35" s="96">
+      <c r="K35" s="95">
         <f t="shared" si="6"/>
         <v>4.7764330379678022</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="122">
+      <c r="N35" s="121">
         <f t="shared" si="7"/>
         <v>6.0121926464803473E-2</v>
       </c>
-      <c r="O35" s="89">
+      <c r="O35" s="88">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P35" s="90">
+      <c r="P35" s="89">
         <f t="shared" si="8"/>
         <v>4.3806960316858386E-2</v>
       </c>
-      <c r="Q35" s="90">
+      <c r="Q35" s="89">
         <f t="shared" si="3"/>
         <v>2.2000986997626759E-3</v>
       </c>
-      <c r="R35" s="123">
+      <c r="R35" s="122">
         <f>IF(Q35&gt;0, ('BPV Calcs'!$B$8/12)+(Q35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.28038079804404548</v>
       </c>
       <c r="S35" s="52"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="102">
+      <c r="A36" s="101">
         <v>60.8</v>
       </c>
-      <c r="B36" s="106">
+      <c r="B36" s="105">
         <v>668.57586708000008</v>
       </c>
-      <c r="C36" s="104">
+      <c r="C36" s="103">
         <v>1.5793700316800001</v>
       </c>
-      <c r="D36" s="105">
+      <c r="D36" s="104">
         <v>0.2688100700928</v>
       </c>
       <c r="E36" s="52"/>
-      <c r="F36" s="95">
+      <c r="F36" s="94">
         <f t="shared" ref="F36:F53" si="9">($C$53-C36)/(D36-C36)</f>
         <v>9.0167576361954008E-2</v>
       </c>
-      <c r="G36" s="137">
+      <c r="G36" s="136">
         <f t="shared" ref="G36:G53" si="10">$U$7/((C36*(1-F36))+(D36*F36))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H36" s="84">
+      <c r="H36" s="83">
         <f t="shared" si="4"/>
         <v>6.7736134931781461E-2</v>
       </c>
-      <c r="I36" s="85">
+      <c r="I36" s="84">
         <f t="shared" si="5"/>
         <v>2.6129273314685751E-2</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="83">
         <f>IF(I36&gt;0, ('BPV Calcs'!$B$8/12)+(I36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.38422293486140346</v>
       </c>
-      <c r="K36" s="96">
+      <c r="K36" s="95">
         <f t="shared" si="6"/>
         <v>4.6106752183368416</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="122">
+      <c r="N36" s="121">
         <f t="shared" si="7"/>
         <v>5.5601372945089003E-2</v>
       </c>
-      <c r="O36" s="89">
+      <c r="O36" s="88">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P36" s="90">
+      <c r="P36" s="89">
         <f t="shared" si="8"/>
         <v>4.0513125267106653E-2</v>
       </c>
-      <c r="Q36" s="90">
+      <c r="Q36" s="89">
         <f t="shared" si="3"/>
         <v>-1.0937363499890565E-3</v>
       </c>
-      <c r="R36" s="123" t="str">
+      <c r="R36" s="122" t="str">
         <f>IF(Q36&gt;0, ('BPV Calcs'!$B$8/12)+(Q36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
       <c r="S36" s="52"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="102">
+      <c r="A37" s="101">
         <v>61.7</v>
       </c>
-      <c r="B37" s="106">
+      <c r="B37" s="105">
         <v>676.36005653999996</v>
       </c>
-      <c r="C37" s="104">
+      <c r="C37" s="103">
         <v>1.5727089131200001</v>
       </c>
-      <c r="D37" s="105">
+      <c r="D37" s="104">
         <v>0.27315953021120004</v>
       </c>
       <c r="E37" s="52"/>
-      <c r="F37" s="95">
+      <c r="F37" s="94">
         <f t="shared" si="9"/>
         <v>8.5805817247007074E-2</v>
       </c>
-      <c r="G37" s="137">
+      <c r="G37" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H37" s="84">
+      <c r="H37" s="83">
         <f t="shared" si="4"/>
         <v>6.4459472567430315E-2</v>
       </c>
-      <c r="I37" s="85">
+      <c r="I37" s="84">
         <f t="shared" si="5"/>
         <v>2.2852610950334605E-2</v>
       </c>
-      <c r="J37" s="84">
+      <c r="J37" s="83">
         <f>IF(I37&gt;0, ('BPV Calcs'!$B$8/12)+(I37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.37000365538274377</v>
       </c>
-      <c r="K37" s="96">
+      <c r="K37" s="95">
         <f t="shared" si="6"/>
         <v>4.4400438645929254</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="122">
+      <c r="N37" s="121">
         <f t="shared" si="7"/>
         <v>5.0946747774153422E-2</v>
       </c>
-      <c r="O37" s="89">
+      <c r="O37" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P37" s="90">
+      <c r="P37" s="89">
         <f t="shared" si="8"/>
         <v>3.7121600874214893E-2</v>
       </c>
-      <c r="Q37" s="90">
+      <c r="Q37" s="89">
         <f t="shared" si="3"/>
         <v>-4.4852607428808172E-3</v>
       </c>
-      <c r="R37" s="123" t="str">
+      <c r="R37" s="122" t="str">
         <f>IF(Q37&gt;0, ('BPV Calcs'!$B$8/12)+(Q37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
@@ -11384,62 +11388,62 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="102">
+      <c r="A38" s="101">
         <v>62.6</v>
       </c>
-      <c r="B38" s="106">
+      <c r="B38" s="105">
         <v>684.21241385999997</v>
       </c>
-      <c r="C38" s="104">
+      <c r="C38" s="103">
         <v>1.56595853984</v>
       </c>
-      <c r="D38" s="105">
+      <c r="D38" s="104">
         <v>0.27760515258880003</v>
       </c>
       <c r="E38" s="52"/>
-      <c r="F38" s="95">
+      <c r="F38" s="94">
         <f t="shared" si="9"/>
         <v>8.1311947956176495E-2</v>
       </c>
-      <c r="G38" s="137">
+      <c r="G38" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H38" s="84">
+      <c r="H38" s="83">
         <f t="shared" si="4"/>
         <v>6.1083565740040757E-2</v>
       </c>
-      <c r="I38" s="85">
+      <c r="I38" s="84">
         <f t="shared" si="5"/>
         <v>1.9476704122945047E-2</v>
       </c>
-      <c r="J38" s="84">
+      <c r="J38" s="83">
         <f>IF(I38&gt;0, ('BPV Calcs'!$B$8/12)+(I38/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.35535369840370878</v>
       </c>
-      <c r="K38" s="96">
+      <c r="K38" s="95">
         <f t="shared" si="6"/>
         <v>4.2642443808445059</v>
       </c>
       <c r="L38" s="52"/>
       <c r="M38" s="52"/>
-      <c r="N38" s="122">
+      <c r="N38" s="121">
         <f t="shared" si="7"/>
         <v>4.6149947630415508E-2</v>
       </c>
-      <c r="O38" s="89">
+      <c r="O38" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P38" s="90">
+      <c r="P38" s="89">
         <f t="shared" si="8"/>
         <v>3.3626482771709584E-2</v>
       </c>
-      <c r="Q38" s="90">
+      <c r="Q38" s="89">
         <f t="shared" si="3"/>
         <v>-7.9803788453861255E-3</v>
       </c>
-      <c r="R38" s="123">
+      <c r="R38" s="122">
         <v>0.24521116920246497</v>
       </c>
       <c r="S38" s="52">
@@ -11448,62 +11452,62 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="102">
+      <c r="A39" s="101">
         <v>63.5</v>
       </c>
-      <c r="B39" s="106">
+      <c r="B39" s="105">
         <v>692.13438942000005</v>
       </c>
-      <c r="C39" s="104">
+      <c r="C39" s="103">
         <v>1.5591150311999999</v>
       </c>
-      <c r="D39" s="105">
+      <c r="D39" s="104">
         <v>0.28215091488159999</v>
       </c>
       <c r="E39" s="52"/>
-      <c r="F39" s="95">
+      <c r="F39" s="94">
         <f t="shared" si="9"/>
         <v>7.6677969006389013E-2</v>
       </c>
-      <c r="G39" s="137">
+      <c r="G39" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H39" s="84">
+      <c r="H39" s="83">
         <f t="shared" si="4"/>
         <v>5.7602405038173606E-2</v>
       </c>
-      <c r="I39" s="85">
+      <c r="I39" s="84">
         <f t="shared" si="5"/>
         <v>1.5995543421077896E-2</v>
       </c>
-      <c r="J39" s="84">
+      <c r="J39" s="83">
         <f>IF(I39&gt;0, ('BPV Calcs'!$B$8/12)+(I39/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.34024698571078288</v>
       </c>
-      <c r="K39" s="96">
+      <c r="K39" s="95">
         <f t="shared" si="6"/>
         <v>4.0829638285293948</v>
       </c>
       <c r="L39" s="52"/>
       <c r="M39" s="52"/>
-      <c r="N39" s="122">
+      <c r="N39" s="121">
         <f t="shared" si="7"/>
         <v>4.1202358029293618E-2</v>
       </c>
-      <c r="O39" s="89">
+      <c r="O39" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P39" s="90">
+      <c r="P39" s="89">
         <f t="shared" si="8"/>
         <v>3.0021494141690707E-2</v>
       </c>
-      <c r="Q39" s="90">
+      <c r="Q39" s="89">
         <f t="shared" si="3"/>
         <v>-1.1585367475405003E-2</v>
       </c>
-      <c r="R39" s="123">
+      <c r="R39" s="122">
         <v>0.22780916988569017</v>
       </c>
       <c r="S39" s="52">
@@ -11512,62 +11516,62 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="102">
+      <c r="A40" s="101">
         <v>64.400000000000006</v>
       </c>
-      <c r="B40" s="106">
+      <c r="B40" s="105">
         <v>700.12743360000002</v>
       </c>
-      <c r="C40" s="104">
+      <c r="C40" s="103">
         <v>1.5521764468799999</v>
       </c>
-      <c r="D40" s="105">
+      <c r="D40" s="104">
         <v>0.28680106639039998</v>
       </c>
       <c r="E40" s="52"/>
-      <c r="F40" s="95">
+      <c r="F40" s="94">
         <f t="shared" si="9"/>
         <v>7.1896792063500151E-2</v>
       </c>
-      <c r="G40" s="137">
+      <c r="G40" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="83">
         <f t="shared" si="4"/>
         <v>5.4010665528217192E-2</v>
       </c>
-      <c r="I40" s="85">
+      <c r="I40" s="84">
         <f t="shared" si="5"/>
         <v>1.2403803911121482E-2</v>
       </c>
-      <c r="J40" s="84">
+      <c r="J40" s="83">
         <f>IF(I40&gt;0, ('BPV Calcs'!$B$8/12)+(I40/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.3246604094244197</v>
       </c>
-      <c r="K40" s="96">
+      <c r="K40" s="95">
         <f t="shared" si="6"/>
         <v>3.8959249130930367</v>
       </c>
       <c r="L40" s="52"/>
       <c r="M40" s="52"/>
-      <c r="N40" s="122">
+      <c r="N40" s="121">
         <f t="shared" si="7"/>
         <v>3.6096283439178707E-2</v>
       </c>
-      <c r="O40" s="89">
+      <c r="O40" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P40" s="90">
+      <c r="P40" s="89">
         <f t="shared" si="8"/>
         <v>2.6301027747869639E-2</v>
       </c>
-      <c r="Q40" s="90">
+      <c r="Q40" s="89">
         <f t="shared" si="3"/>
         <v>-1.5305833869226071E-2</v>
       </c>
-      <c r="R40" s="123">
+      <c r="R40" s="122">
         <v>0.21248930599027482</v>
       </c>
       <c r="S40" s="52">
@@ -11576,62 +11580,62 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="102">
+      <c r="A41" s="101">
         <v>65.3</v>
       </c>
-      <c r="B41" s="106">
+      <c r="B41" s="105">
         <v>708.18864564</v>
       </c>
-      <c r="C41" s="104">
+      <c r="C41" s="103">
         <v>1.5451350256</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="104">
         <v>0.29156020567359997</v>
       </c>
       <c r="E41" s="52"/>
-      <c r="F41" s="95">
+      <c r="F41" s="94">
         <f t="shared" si="9"/>
         <v>6.6956521460969767E-2</v>
       </c>
-      <c r="G41" s="137">
+      <c r="G41" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H41" s="84">
+      <c r="H41" s="83">
         <f t="shared" si="4"/>
         <v>5.0299410888420645E-2</v>
       </c>
-      <c r="I41" s="85">
+      <c r="I41" s="84">
         <f t="shared" si="5"/>
         <v>8.6925492713249355E-3</v>
       </c>
-      <c r="J41" s="84">
+      <c r="J41" s="83">
         <f>IF(I41&gt;0, ('BPV Calcs'!$B$8/12)+(I41/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.30855518982234165</v>
       </c>
-      <c r="K41" s="96">
+      <c r="K41" s="95">
         <f t="shared" si="6"/>
         <v>3.7026622778680998</v>
       </c>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
-      <c r="N41" s="122">
+      <c r="N41" s="121">
         <f t="shared" si="7"/>
         <v>3.0819003777835637E-2</v>
       </c>
-      <c r="O41" s="89">
+      <c r="O41" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P41" s="90">
+      <c r="P41" s="89">
         <f t="shared" si="8"/>
         <v>2.2455815288805175E-2</v>
       </c>
-      <c r="Q41" s="90">
+      <c r="Q41" s="89">
         <f t="shared" si="3"/>
         <v>-1.9151046328290535E-2</v>
       </c>
-      <c r="R41" s="123">
+      <c r="R41" s="122">
         <v>0.1907150772829011</v>
       </c>
       <c r="S41" s="52">
@@ -11640,64 +11644,64 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="102">
+      <c r="A42" s="101">
         <v>66.2</v>
       </c>
-      <c r="B42" s="106">
+      <c r="B42" s="105">
         <v>716.32237667999993</v>
       </c>
-      <c r="C42" s="104">
+      <c r="C42" s="103">
         <v>1.5379868867199999</v>
       </c>
-      <c r="D42" s="105">
+      <c r="D42" s="104">
         <v>0.29643326114399998</v>
       </c>
       <c r="E42" s="52"/>
-      <c r="F42" s="95">
+      <c r="F42" s="94">
         <f t="shared" si="9"/>
         <v>6.1847405437448669E-2</v>
       </c>
-      <c r="G42" s="137">
+      <c r="G42" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="83">
         <f t="shared" si="4"/>
         <v>4.6461315352147849E-2</v>
       </c>
-      <c r="I42" s="85">
+      <c r="I42" s="84">
         <f t="shared" si="5"/>
         <v>4.8544537350521388E-3</v>
       </c>
-      <c r="J42" s="84">
+      <c r="J42" s="83">
         <f>IF(I42&gt;0, ('BPV Calcs'!$B$8/12)+(I42/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.29189953628604387</v>
       </c>
-      <c r="K42" s="96">
+      <c r="K42" s="95">
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="174" t="s">
+      <c r="L42" s="166" t="s">
         <v>57</v>
       </c>
       <c r="M42" s="52"/>
-      <c r="N42" s="122">
+      <c r="N42" s="121">
         <f t="shared" si="7"/>
         <v>2.5359990565452944E-2</v>
       </c>
-      <c r="O42" s="89">
+      <c r="O42" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P42" s="90">
+      <c r="P42" s="89">
         <f t="shared" si="8"/>
         <v>1.8478185342032709E-2</v>
       </c>
-      <c r="Q42" s="90">
+      <c r="Q42" s="89">
         <f t="shared" si="3"/>
         <v>-2.3128676275063001E-2</v>
       </c>
-      <c r="R42" s="123">
+      <c r="R42" s="122">
         <v>0.17168996493983751</v>
       </c>
       <c r="S42" s="52">
@@ -11706,62 +11710,62 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="102">
+      <c r="A43" s="101">
         <v>67.099999999999994</v>
       </c>
-      <c r="B43" s="106">
+      <c r="B43" s="105">
         <v>724.52862672000003</v>
       </c>
-      <c r="C43" s="104">
+      <c r="C43" s="103">
         <v>1.5307281495999998</v>
       </c>
-      <c r="D43" s="105">
+      <c r="D43" s="104">
         <v>0.301425510472</v>
       </c>
       <c r="E43" s="52"/>
-      <c r="F43" s="95">
+      <c r="F43" s="94">
         <f t="shared" si="9"/>
         <v>5.6559004365802502E-2</v>
       </c>
-      <c r="G43" s="137">
+      <c r="G43" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="83">
         <f t="shared" si="4"/>
         <v>4.2488536410808235E-2</v>
       </c>
-      <c r="I43" s="85">
+      <c r="I43" s="84">
         <f t="shared" si="5"/>
         <v>8.8167479371252522E-4</v>
       </c>
-      <c r="J43" s="84">
+      <c r="J43" s="83">
         <f>IF(I43&gt;0, ('BPV Calcs'!$B$8/12)+(I43/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.27465941576327285</v>
       </c>
-      <c r="K43" s="96">
+      <c r="K43" s="95">
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="174"/>
+      <c r="L43" s="166"/>
       <c r="M43" s="52"/>
-      <c r="N43" s="122">
+      <c r="N43" s="121">
         <f t="shared" si="7"/>
         <v>1.9707963149169245E-2</v>
       </c>
-      <c r="O43" s="89">
+      <c r="O43" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P43" s="90">
+      <c r="P43" s="89">
         <f t="shared" si="8"/>
         <v>1.4359918425221848E-2</v>
       </c>
-      <c r="Q43" s="90">
+      <c r="Q43" s="89">
         <f t="shared" si="3"/>
         <v>-2.724694319187386E-2</v>
       </c>
-      <c r="R43" s="123">
+      <c r="R43" s="122">
         <v>0.14850498963246994</v>
       </c>
       <c r="S43" s="52">
@@ -11770,40 +11774,40 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="102">
+      <c r="A44" s="101">
         <v>68</v>
       </c>
-      <c r="B44" s="106">
+      <c r="B44" s="105">
         <v>732.80594538000003</v>
       </c>
-      <c r="C44" s="104">
+      <c r="C44" s="103">
         <v>1.5233529932800001</v>
       </c>
-      <c r="D44" s="105">
+      <c r="D44" s="104">
         <v>0.30654265819839999</v>
       </c>
       <c r="E44" s="52"/>
-      <c r="F44" s="95">
+      <c r="F44" s="94">
         <f t="shared" si="9"/>
         <v>5.1078607093820678E-2</v>
       </c>
-      <c r="G44" s="137">
+      <c r="G44" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="83">
         <f t="shared" si="4"/>
         <v>3.8371525129451856E-2</v>
       </c>
-      <c r="I44" s="85">
+      <c r="I44" s="84">
         <f t="shared" si="5"/>
         <v>-3.2353364876438542E-3</v>
       </c>
-      <c r="J44" s="84" t="str">
+      <c r="J44" s="83" t="str">
         <f>IF(I44&gt;0, ('BPV Calcs'!$B$8/12)+(I44/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>Need to Use Goal Seek tool</v>
       </c>
-      <c r="K44" s="96" t="e">
+      <c r="K44" s="95" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
@@ -11811,23 +11815,23 @@
         <v>54</v>
       </c>
       <c r="M44" s="52"/>
-      <c r="N44" s="122">
+      <c r="N44" s="121">
         <f t="shared" si="7"/>
         <v>1.3849237062883164E-2</v>
       </c>
-      <c r="O44" s="89">
+      <c r="O44" s="88">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P44" s="90">
+      <c r="P44" s="89">
         <f t="shared" si="8"/>
         <v>1.0091043552765345E-2</v>
       </c>
-      <c r="Q44" s="90">
+      <c r="Q44" s="89">
         <f t="shared" si="3"/>
         <v>-3.1515818064330361E-2</v>
       </c>
-      <c r="R44" s="123">
+      <c r="R44" s="122">
         <v>0.12149580367635861</v>
       </c>
       <c r="S44" s="52">
@@ -11836,39 +11840,39 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="102">
+      <c r="A45" s="101">
         <v>68.900000000000006</v>
       </c>
-      <c r="B45" s="106">
+      <c r="B45" s="105">
         <v>741.15723342000001</v>
       </c>
-      <c r="C45" s="104">
+      <c r="C45" s="103">
         <v>1.51585365648</v>
       </c>
-      <c r="D45" s="105">
+      <c r="D45" s="104">
         <v>0.31179093275039999</v>
       </c>
       <c r="E45" s="52"/>
-      <c r="F45" s="95">
+      <c r="F45" s="94">
         <f t="shared" si="9"/>
         <v>4.5391024185220959E-2</v>
       </c>
-      <c r="G45" s="137">
+      <c r="G45" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="83">
         <f t="shared" si="4"/>
         <v>3.4098870824249061E-2</v>
       </c>
-      <c r="I45" s="85">
+      <c r="I45" s="84">
         <f t="shared" si="5"/>
         <v>-7.5079907928466486E-3</v>
       </c>
-      <c r="J45" s="132">
+      <c r="J45" s="131">
         <v>0.24687064833561331</v>
       </c>
-      <c r="K45" s="97">
+      <c r="K45" s="96">
         <f t="shared" si="6"/>
         <v>2.9624477800273596</v>
       </c>
@@ -11877,23 +11881,23 @@
         <v>2.0004865604307878E-3</v>
       </c>
       <c r="M45" s="52"/>
-      <c r="N45" s="122">
+      <c r="N45" s="121">
         <f t="shared" si="7"/>
         <v>7.7675006515787424E-3</v>
       </c>
-      <c r="O45" s="89">
+      <c r="O45" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P45" s="90">
+      <c r="P45" s="89">
         <f t="shared" si="8"/>
         <v>5.6596754763685508E-3</v>
       </c>
-      <c r="Q45" s="90">
+      <c r="Q45" s="89">
         <f t="shared" si="3"/>
         <v>-3.5947186140727158E-2</v>
       </c>
-      <c r="R45" s="123">
+      <c r="R45" s="122">
         <v>9.2278680376457742E-2</v>
       </c>
       <c r="S45" s="52">
@@ -11902,39 +11906,39 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="102">
+      <c r="A46" s="101">
         <v>69.8</v>
       </c>
-      <c r="B46" s="106">
+      <c r="B46" s="105">
         <v>749.58104045999994</v>
       </c>
-      <c r="C46" s="104">
+      <c r="C46" s="103">
         <v>1.5082262585599999</v>
       </c>
-      <c r="D46" s="105">
+      <c r="D46" s="104">
         <v>0.31717698942559996</v>
       </c>
       <c r="E46" s="52"/>
-      <c r="F46" s="95">
+      <c r="F46" s="94">
         <f t="shared" si="9"/>
         <v>3.9483036942300216E-2</v>
       </c>
-      <c r="G46" s="137">
+      <c r="G46" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H46" s="84">
+      <c r="H46" s="83">
         <f t="shared" si="4"/>
         <v>2.9660643279402023E-2</v>
       </c>
-      <c r="I46" s="85">
+      <c r="I46" s="84">
         <f t="shared" si="5"/>
         <v>-1.1946218337693687E-2</v>
       </c>
-      <c r="J46" s="132">
+      <c r="J46" s="131">
         <v>0.22573990311305595</v>
       </c>
-      <c r="K46" s="97">
+      <c r="K46" s="96">
         <f t="shared" si="6"/>
         <v>2.7088788373566715</v>
       </c>
@@ -11943,23 +11947,23 @@
         <v>1.6509998273735796E-3</v>
       </c>
       <c r="M46" s="52"/>
-      <c r="N46" s="122">
+      <c r="N46" s="121">
         <f t="shared" si="7"/>
         <v>1.4484372022368131E-3</v>
       </c>
-      <c r="O46" s="89">
+      <c r="O46" s="88">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P46" s="90">
+      <c r="P46" s="89">
         <f>O46*N46</f>
         <v>1.0553825329764717E-3</v>
       </c>
-      <c r="Q46" s="90">
+      <c r="Q46" s="89">
         <f t="shared" si="3"/>
         <v>-4.0551479084119241E-2</v>
       </c>
-      <c r="R46" s="123">
+      <c r="R46" s="122">
         <v>4.3206062949403698E-2</v>
       </c>
       <c r="S46" s="52">
@@ -11968,42 +11972,42 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107">
+      <c r="A47" s="106">
         <v>70</v>
       </c>
-      <c r="B47" s="108">
+      <c r="B47" s="107">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="109">
+      <c r="C47" s="108">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="110">
+      <c r="D47" s="109">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
       <c r="E47" s="49"/>
-      <c r="F47" s="98">
+      <c r="F47" s="97">
         <f t="shared" si="9"/>
         <v>3.8129176343576189E-2</v>
       </c>
-      <c r="G47" s="138">
+      <c r="G47" s="137">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H47" s="86">
+      <c r="H47" s="85">
         <f t="shared" si="4"/>
         <v>2.8643589390475625E-2</v>
       </c>
-      <c r="I47" s="87">
+      <c r="I47" s="86">
         <f t="shared" si="5"/>
         <v>-1.2963272226620085E-2</v>
       </c>
-      <c r="J47" s="133">
+      <c r="J47" s="132">
         <v>0.22082528187997902</v>
       </c>
-      <c r="K47" s="97">
+      <c r="K47" s="96">
         <f t="shared" si="6"/>
         <v>2.6499033825597484</v>
       </c>
@@ -12012,23 +12016,23 @@
         <v>1.5704796657203812E-3</v>
       </c>
       <c r="M47" s="52"/>
-      <c r="N47" s="124">
+      <c r="N47" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O47" s="125">
+      <c r="O47" s="124">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P47" s="126">
+      <c r="P47" s="125">
         <f>O47*N47</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="126">
+      <c r="Q47" s="125">
         <f t="shared" si="3"/>
         <v>-4.160686161709571E-2</v>
       </c>
-      <c r="R47" s="127">
+      <c r="R47" s="126">
         <v>2.9265192002976545E-2</v>
       </c>
       <c r="S47" s="52">
@@ -12038,39 +12042,39 @@
       <c r="T47" s="51"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="102">
+      <c r="A48" s="101">
         <v>70.7</v>
       </c>
-      <c r="B48" s="106">
+      <c r="B48" s="105">
         <v>758.08026725999991</v>
       </c>
-      <c r="C48" s="104">
+      <c r="C48" s="103">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D48" s="105">
+      <c r="D48" s="104">
         <v>0.32270816263359997</v>
       </c>
       <c r="E48" s="52"/>
-      <c r="F48" s="95">
+      <c r="F48" s="94">
         <f t="shared" si="9"/>
         <v>3.3337176339955747E-2</v>
       </c>
-      <c r="G48" s="137">
+      <c r="G48" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H48" s="84">
+      <c r="H48" s="83">
         <f t="shared" si="4"/>
         <v>2.50437193270357E-2</v>
       </c>
-      <c r="I48" s="85">
+      <c r="I48" s="84">
         <f t="shared" si="5"/>
         <v>-1.656314229006001E-2</v>
       </c>
-      <c r="J48" s="132">
+      <c r="J48" s="131">
         <v>0.20311497711219526</v>
       </c>
-      <c r="K48" s="97">
+      <c r="K48" s="96">
         <f t="shared" si="6"/>
         <v>2.437379725346343</v>
       </c>
@@ -12080,46 +12084,46 @@
       </c>
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
-      <c r="O48" s="65"/>
+      <c r="O48" s="64"/>
       <c r="P48" s="52"/>
       <c r="Q48" s="52"/>
-      <c r="R48" s="72"/>
+      <c r="R48" s="71"/>
       <c r="S48" s="52"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="102">
+      <c r="A49" s="101">
         <v>71.599999999999994</v>
       </c>
-      <c r="B49" s="106">
+      <c r="B49" s="105">
         <v>766.65491381999993</v>
       </c>
-      <c r="C49" s="104">
+      <c r="C49" s="103">
         <v>1.4925542939199998</v>
       </c>
-      <c r="D49" s="105">
+      <c r="D49" s="104">
         <v>0.32839236888000001</v>
       </c>
       <c r="E49" s="52"/>
-      <c r="F49" s="95">
+      <c r="F49" s="94">
         <f t="shared" si="9"/>
         <v>2.693291798927008E-2</v>
       </c>
-      <c r="G49" s="137">
+      <c r="G49" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H49" s="84">
+      <c r="H49" s="83">
         <f t="shared" si="4"/>
         <v>2.0232680533682115E-2</v>
       </c>
-      <c r="I49" s="85">
+      <c r="I49" s="84">
         <f t="shared" si="5"/>
         <v>-2.1374181083413595E-2</v>
       </c>
-      <c r="J49" s="132">
+      <c r="J49" s="131">
         <v>0.17870440324472858</v>
       </c>
-      <c r="K49" s="97">
+      <c r="K49" s="96">
         <f t="shared" si="6"/>
         <v>2.144452838936743</v>
       </c>
@@ -12129,46 +12133,46 @@
       </c>
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
-      <c r="O49" s="65"/>
+      <c r="O49" s="64"/>
       <c r="P49" s="52"/>
       <c r="Q49" s="52"/>
-      <c r="R49" s="72"/>
+      <c r="R49" s="71"/>
       <c r="S49" s="52"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="102">
+      <c r="A50" s="101">
         <v>72.5</v>
       </c>
-      <c r="B50" s="106">
+      <c r="B50" s="105">
         <v>775.30498014</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="103">
         <v>1.48449226432</v>
       </c>
-      <c r="D50" s="105">
+      <c r="D50" s="104">
         <v>0.33423830079839995</v>
       </c>
       <c r="E50" s="52"/>
-      <c r="F50" s="95">
+      <c r="F50" s="94">
         <f t="shared" si="9"/>
         <v>2.0249656851450533E-2</v>
       </c>
-      <c r="G50" s="137">
+      <c r="G50" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H50" s="84">
+      <c r="H50" s="83">
         <f t="shared" si="4"/>
         <v>1.5212047879673117E-2</v>
       </c>
-      <c r="I50" s="85">
+      <c r="I50" s="84">
         <f t="shared" si="5"/>
         <v>-2.6394813737422591E-2</v>
       </c>
-      <c r="J50" s="132">
+      <c r="J50" s="131">
         <v>0.14877637433762442</v>
       </c>
-      <c r="K50" s="97">
+      <c r="K50" s="96">
         <f t="shared" si="6"/>
         <v>1.785316492051493</v>
       </c>
@@ -12178,46 +12182,46 @@
       </c>
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
-      <c r="O50" s="65"/>
+      <c r="O50" s="64"/>
       <c r="P50" s="52"/>
       <c r="Q50" s="52"/>
-      <c r="R50" s="72"/>
+      <c r="R50" s="71"/>
       <c r="S50" s="52"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="102">
+      <c r="A51" s="101">
         <v>73.400000000000006</v>
       </c>
-      <c r="B51" s="106">
+      <c r="B51" s="105">
         <v>784.03191660000005</v>
       </c>
-      <c r="C51" s="104">
+      <c r="C51" s="103">
         <v>1.4762691881599999</v>
       </c>
-      <c r="D51" s="105">
+      <c r="D51" s="104">
         <v>0.34025552416639998</v>
       </c>
       <c r="E51" s="52"/>
-      <c r="F51" s="95">
+      <c r="F51" s="94">
         <f t="shared" si="9"/>
         <v>1.3264956550221583E-2</v>
       </c>
-      <c r="G51" s="137">
+      <c r="G51" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H51" s="84">
+      <c r="H51" s="83">
         <f t="shared" si="4"/>
         <v>9.964966598893241E-3</v>
       </c>
-      <c r="I51" s="85">
+      <c r="I51" s="84">
         <f t="shared" si="5"/>
         <v>-3.1641895018202471E-2</v>
       </c>
-      <c r="J51" s="132">
+      <c r="J51" s="131">
         <v>0.11973998427717275</v>
       </c>
-      <c r="K51" s="97">
+      <c r="K51" s="96">
         <f t="shared" si="6"/>
         <v>1.436879811326073</v>
       </c>
@@ -12227,48 +12231,48 @@
       </c>
       <c r="M51" s="52"/>
       <c r="N51" s="52"/>
-      <c r="O51" s="175" t="s">
+      <c r="O51" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="P51" s="65"/>
+      <c r="P51" s="64"/>
       <c r="Q51" s="52"/>
-      <c r="R51" s="72"/>
+      <c r="R51" s="71"/>
       <c r="S51" s="52"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="102">
+      <c r="A52" s="101">
         <v>74.3</v>
       </c>
-      <c r="B52" s="106">
+      <c r="B52" s="105">
         <v>792.83572320000007</v>
       </c>
-      <c r="C52" s="104">
+      <c r="C52" s="103">
         <v>1.4678734235199999</v>
       </c>
-      <c r="D52" s="105">
+      <c r="D52" s="104">
         <v>0.34645449730880001</v>
       </c>
       <c r="E52" s="52"/>
-      <c r="F52" s="95">
+      <c r="F52" s="94">
         <f t="shared" si="9"/>
         <v>5.9508601980526824E-3</v>
       </c>
-      <c r="G52" s="137">
+      <c r="G52" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H52" s="84">
+      <c r="H52" s="83">
         <f t="shared" si="4"/>
         <v>4.4704347793199243E-3</v>
       </c>
-      <c r="I52" s="85">
+      <c r="I52" s="84">
         <f t="shared" si="5"/>
         <v>-3.7136426837775786E-2</v>
       </c>
-      <c r="J52" s="132">
+      <c r="J52" s="131">
         <v>7.5494467975184554E-2</v>
       </c>
-      <c r="K52" s="97">
+      <c r="K52" s="96">
         <f t="shared" si="6"/>
         <v>0.90593361570221465</v>
       </c>
@@ -12278,49 +12282,49 @@
       </c>
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
-      <c r="O52" s="65"/>
+      <c r="O52" s="64"/>
       <c r="P52" s="52"/>
       <c r="Q52" s="52"/>
-      <c r="R52" s="72"/>
+      <c r="R52" s="71"/>
       <c r="S52" s="52"/>
     </row>
     <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="107">
+      <c r="A53" s="106">
         <v>75</v>
       </c>
-      <c r="B53" s="108">
+      <c r="B53" s="107">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="109">
+      <c r="C53" s="108">
         <f t="shared" ref="C53:D53" si="11">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="110">
+      <c r="D53" s="109">
         <f t="shared" si="11"/>
         <v>0.35142632153493331</v>
       </c>
       <c r="E53" s="49"/>
-      <c r="F53" s="99">
+      <c r="F53" s="98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G53" s="139">
+      <c r="G53" s="138">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H53" s="136">
+      <c r="H53" s="135">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="100">
+      <c r="I53" s="99">
         <f t="shared" si="5"/>
         <v>-4.160686161709571E-2</v>
       </c>
-      <c r="J53" s="134">
+      <c r="J53" s="133">
         <v>0</v>
       </c>
-      <c r="K53" s="101">
+      <c r="K53" s="100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -12330,24 +12334,24 @@
       </c>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
-      <c r="O53" s="65"/>
+      <c r="O53" s="64"/>
       <c r="P53" s="49"/>
       <c r="Q53" s="49"/>
-      <c r="R53" s="73"/>
+      <c r="R53" s="72"/>
       <c r="S53" s="49"/>
       <c r="T53" s="42"/>
     </row>
     <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="102">
+      <c r="A54" s="101">
         <v>75.2</v>
       </c>
-      <c r="B54" s="106">
+      <c r="B54" s="105">
         <v>801.71930069999996</v>
       </c>
-      <c r="C54" s="104">
+      <c r="C54" s="103">
         <v>1.45929332848</v>
       </c>
-      <c r="D54" s="105">
+      <c r="D54" s="104">
         <v>0.35284684274239997</v>
       </c>
       <c r="E54" s="52"/>
@@ -12363,27 +12367,27 @@
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
       <c r="Q54" s="52"/>
-      <c r="R54" s="72"/>
+      <c r="R54" s="71"/>
       <c r="S54" s="52"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="102">
+      <c r="A55" s="101">
         <v>76.099999999999994</v>
       </c>
-      <c r="B55" s="106">
+      <c r="B55" s="105">
         <v>810.68264910000005</v>
       </c>
-      <c r="C55" s="104">
+      <c r="C55" s="103">
         <v>1.4505153208000001</v>
       </c>
-      <c r="D55" s="105">
+      <c r="D55" s="104">
         <v>0.35944542478879998</v>
       </c>
       <c r="E55" s="52"/>
-      <c r="F55" s="91" t="s">
+      <c r="F55" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="140">
+      <c r="G55" s="139">
         <f>(2/3)*PI()*(('BPV Calcs'!B8/12)^3)</f>
         <v>4.160686161709571E-2</v>
       </c>
@@ -12397,24 +12401,24 @@
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="74"/>
+      <c r="R55" s="73"/>
       <c r="S55" s="17"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="102">
+      <c r="A56" s="101">
         <v>77</v>
       </c>
-      <c r="B56" s="106">
+      <c r="B56" s="105">
         <v>819.72576839999999</v>
       </c>
-      <c r="C56" s="104">
+      <c r="C56" s="103">
         <v>1.4415277585599999</v>
       </c>
-      <c r="D56" s="105">
+      <c r="D56" s="104">
         <v>0.36626458241279997</v>
       </c>
       <c r="E56" s="52"/>
-      <c r="F56" s="92" t="s">
+      <c r="F56" s="91" t="s">
         <v>46</v>
       </c>
       <c r="G56" s="40">
@@ -12431,24 +12435,24 @@
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
-      <c r="R56" s="74"/>
+      <c r="R56" s="73"/>
       <c r="S56" s="17"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="102">
+      <c r="A57" s="101">
         <v>77.900000000000006</v>
       </c>
-      <c r="B57" s="106">
+      <c r="B57" s="105">
         <v>828.85010898000007</v>
       </c>
-      <c r="C57" s="104">
+      <c r="C57" s="103">
         <v>1.4323131788799999</v>
       </c>
-      <c r="D57" s="105">
+      <c r="D57" s="104">
         <v>0.37332036206079999</v>
       </c>
       <c r="E57" s="52"/>
-      <c r="F57" s="92" t="s">
+      <c r="F57" s="91" t="s">
         <v>45</v>
       </c>
       <c r="G57" s="40">
@@ -12465,27 +12469,27 @@
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="74"/>
+      <c r="R57" s="73"/>
       <c r="S57" s="17"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="102">
+      <c r="A58" s="101">
         <v>78.8</v>
       </c>
-      <c r="B58" s="106">
+      <c r="B58" s="105">
         <v>838.05712122</v>
       </c>
-      <c r="C58" s="104">
+      <c r="C58" s="103">
         <v>1.4228541188799999</v>
       </c>
-      <c r="D58" s="105">
+      <c r="D58" s="104">
         <v>0.38063080870880001</v>
       </c>
       <c r="E58" s="52"/>
-      <c r="F58" s="93" t="s">
+      <c r="F58" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="141">
+      <c r="G58" s="140">
         <f>G57+(2*'BPV Calcs'!B8/12)</f>
         <v>3.4405428918421621</v>
       </c>
@@ -12499,20 +12503,20 @@
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
-      <c r="R58" s="74"/>
+      <c r="R58" s="73"/>
       <c r="S58" s="17"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="102">
+      <c r="A59" s="101">
         <v>79.7</v>
       </c>
-      <c r="B59" s="106">
+      <c r="B59" s="105">
         <v>847.34825549999994</v>
       </c>
-      <c r="C59" s="104">
+      <c r="C59" s="103">
         <v>1.41312923504</v>
       </c>
-      <c r="D59" s="105">
+      <c r="D59" s="104">
         <v>0.38821637332959996</v>
       </c>
       <c r="E59" s="52"/>
@@ -12528,49 +12532,49 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
-      <c r="R59" s="74"/>
+      <c r="R59" s="73"/>
       <c r="S59" s="17"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="102">
+      <c r="A60" s="101">
         <v>80.599999999999994</v>
       </c>
-      <c r="B60" s="106">
+      <c r="B60" s="105">
         <v>856.72351182</v>
       </c>
-      <c r="C60" s="104">
+      <c r="C60" s="103">
         <v>1.4031171838399998</v>
       </c>
-      <c r="D60" s="105">
+      <c r="D60" s="104">
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="52"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="163"/>
       <c r="H60" s="40"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
+      <c r="N60" s="163"/>
+      <c r="O60" s="163"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
-      <c r="R60" s="74"/>
+      <c r="R60" s="73"/>
       <c r="S60" s="17"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="102">
+      <c r="A61" s="101">
         <v>81.5</v>
       </c>
-      <c r="B61" s="106">
+      <c r="B61" s="105">
         <v>866.18579093999995</v>
       </c>
-      <c r="C61" s="104">
+      <c r="C61" s="103">
         <v>1.3927888604799998</v>
       </c>
-      <c r="D61" s="105">
+      <c r="D61" s="104">
         <v>0.40430919337760002</v>
       </c>
       <c r="E61" s="52"/>
@@ -12586,20 +12590,20 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
-      <c r="R61" s="74"/>
+      <c r="R61" s="73"/>
       <c r="S61" s="17"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="102">
+      <c r="A62" s="101">
         <v>82.4</v>
       </c>
-      <c r="B62" s="106">
+      <c r="B62" s="105">
         <v>875.73364248000007</v>
       </c>
-      <c r="C62" s="104">
+      <c r="C62" s="103">
         <v>1.3821171004799999</v>
       </c>
-      <c r="D62" s="105">
+      <c r="D62" s="104">
         <v>0.41287390167999999</v>
       </c>
       <c r="E62" s="52"/>
@@ -12615,20 +12619,20 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="74"/>
+      <c r="R62" s="73"/>
       <c r="S62" s="17"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="102">
+      <c r="A63" s="101">
         <v>83.3</v>
       </c>
-      <c r="B63" s="106">
+      <c r="B63" s="105">
         <v>885.37141757999996</v>
       </c>
-      <c r="C63" s="104">
+      <c r="C63" s="103">
         <v>1.37106309744</v>
       </c>
-      <c r="D63" s="105">
+      <c r="D63" s="104">
         <v>0.42183024417120002</v>
       </c>
       <c r="E63" s="52"/>
@@ -12644,20 +12648,20 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
-      <c r="R63" s="74"/>
+      <c r="R63" s="73"/>
       <c r="S63" s="17"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="102">
+      <c r="A64" s="101">
         <v>84.2</v>
       </c>
-      <c r="B64" s="106">
+      <c r="B64" s="105">
         <v>895.10056662</v>
       </c>
-      <c r="C64" s="104">
+      <c r="C64" s="103">
         <v>1.35958416432</v>
       </c>
-      <c r="D64" s="105">
+      <c r="D64" s="104">
         <v>0.43122034519840002</v>
       </c>
       <c r="E64" s="52"/>
@@ -12673,20 +12677,20 @@
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
-      <c r="R64" s="74"/>
+      <c r="R64" s="73"/>
       <c r="S64" s="17"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="102">
+      <c r="A65" s="101">
         <v>85.1</v>
       </c>
-      <c r="B65" s="106">
+      <c r="B65" s="105">
         <v>904.91963922000002</v>
       </c>
-      <c r="C65" s="104">
+      <c r="C65" s="103">
         <v>1.3476317931200001</v>
       </c>
-      <c r="D65" s="105">
+      <c r="D65" s="104">
         <v>0.44109424561439997</v>
       </c>
       <c r="E65" s="52"/>
@@ -12702,20 +12706,20 @@
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
-      <c r="R65" s="74"/>
+      <c r="R65" s="73"/>
       <c r="S65" s="17"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="102">
+      <c r="A66" s="101">
         <v>86</v>
       </c>
-      <c r="B66" s="106">
+      <c r="B66" s="105">
         <v>914.83443690000001</v>
       </c>
-      <c r="C66" s="104">
+      <c r="C66" s="103">
         <v>1.33514583392</v>
       </c>
-      <c r="D66" s="105">
+      <c r="D66" s="104">
         <v>0.45151211474239994</v>
       </c>
       <c r="E66" s="52"/>
@@ -12731,20 +12735,20 @@
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
-      <c r="R66" s="74"/>
+      <c r="R66" s="73"/>
       <c r="S66" s="17"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="102">
+      <c r="A67" s="101">
         <v>86.9</v>
       </c>
-      <c r="B67" s="106">
+      <c r="B67" s="105">
         <v>924.84350928000003</v>
       </c>
-      <c r="C67" s="104">
+      <c r="C67" s="103">
         <v>1.3220506142399999</v>
       </c>
-      <c r="D67" s="105">
+      <c r="D67" s="104">
         <v>0.4625472966784</v>
       </c>
       <c r="E67" s="52"/>
@@ -12760,20 +12764,20 @@
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
-      <c r="R67" s="74"/>
+      <c r="R67" s="73"/>
       <c r="S67" s="17"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="102">
+      <c r="A68" s="101">
         <v>87.8</v>
       </c>
-      <c r="B68" s="106">
+      <c r="B68" s="105">
         <v>934.95120750000012</v>
       </c>
-      <c r="C68" s="104">
+      <c r="C68" s="103">
         <v>1.30825687936</v>
       </c>
-      <c r="D68" s="105">
+      <c r="D68" s="104">
         <v>0.47429065660800002</v>
       </c>
       <c r="E68" s="52"/>
@@ -12789,20 +12793,20 @@
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
-      <c r="R68" s="74"/>
+      <c r="R68" s="73"/>
       <c r="S68" s="17"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="102">
+      <c r="A69" s="101">
         <v>88.7</v>
       </c>
-      <c r="B69" s="106">
+      <c r="B69" s="105">
         <v>945.16043231999993</v>
       </c>
-      <c r="C69" s="104">
+      <c r="C69" s="103">
         <v>1.29364626976</v>
       </c>
-      <c r="D69" s="105">
+      <c r="D69" s="104">
         <v>0.48685690624959999</v>
       </c>
       <c r="E69" s="52"/>
@@ -12818,20 +12822,20 @@
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
-      <c r="R69" s="74"/>
+      <c r="R69" s="73"/>
       <c r="S69" s="17"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="102">
+      <c r="A70" s="101">
         <v>89.6</v>
       </c>
-      <c r="B70" s="106">
+      <c r="B70" s="105">
         <v>955.47118374000013</v>
       </c>
-      <c r="C70" s="104">
+      <c r="C70" s="103">
         <v>1.2780693808000001</v>
       </c>
-      <c r="D70" s="105">
+      <c r="D70" s="104">
         <v>0.50039415022879996</v>
       </c>
       <c r="E70" s="52"/>
@@ -12847,20 +12851,20 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
-      <c r="R70" s="74"/>
+      <c r="R70" s="73"/>
       <c r="S70" s="17"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="102">
+      <c r="A71" s="101">
         <v>90.5</v>
       </c>
-      <c r="B71" s="106">
+      <c r="B71" s="105">
         <v>965.88781289999997</v>
       </c>
-      <c r="C71" s="104">
+      <c r="C71" s="103">
         <v>1.2613302401599999</v>
       </c>
-      <c r="D71" s="105">
+      <c r="D71" s="104">
         <v>0.51509886534880001</v>
       </c>
       <c r="E71" s="52"/>
@@ -12876,20 +12880,20 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
-      <c r="R71" s="74"/>
+      <c r="R71" s="73"/>
       <c r="S71" s="17"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="102">
+      <c r="A72" s="101">
         <v>91.4</v>
       </c>
-      <c r="B72" s="106">
+      <c r="B72" s="105">
         <v>976.41612132</v>
       </c>
-      <c r="C72" s="104">
+      <c r="C72" s="103">
         <v>1.24315138208</v>
       </c>
-      <c r="D72" s="105">
+      <c r="D72" s="104">
         <v>0.53124065907359996</v>
       </c>
       <c r="E72" s="52"/>
@@ -12905,20 +12909,20 @@
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
-      <c r="R72" s="74"/>
+      <c r="R72" s="73"/>
       <c r="S72" s="17"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="102">
+      <c r="A73" s="101">
         <v>92.3</v>
       </c>
-      <c r="B73" s="106">
+      <c r="B73" s="105">
         <v>987.05610900000011</v>
       </c>
-      <c r="C73" s="104">
+      <c r="C73" s="103">
         <v>1.2231428022399999</v>
       </c>
-      <c r="D73" s="105">
+      <c r="D73" s="104">
         <v>0.54920555806720006</v>
       </c>
       <c r="E73" s="52"/>
@@ -12934,20 +12938,20 @@
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
-      <c r="R73" s="74"/>
+      <c r="R73" s="73"/>
       <c r="S73" s="17"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="102">
+      <c r="A74" s="101">
         <v>93.2</v>
       </c>
-      <c r="B74" s="106">
+      <c r="B74" s="105">
         <v>997.81792859999996</v>
       </c>
-      <c r="C74" s="104">
+      <c r="C74" s="103">
         <v>1.20071076272</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="104">
         <v>0.56957841358399997</v>
       </c>
       <c r="E74" s="52"/>
@@ -12963,20 +12967,20 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
-      <c r="R74" s="74"/>
+      <c r="R74" s="73"/>
       <c r="S74" s="17"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="102">
+      <c r="A75" s="101">
         <v>94.1</v>
       </c>
-      <c r="B75" s="106">
+      <c r="B75" s="105">
         <v>1008.70448088</v>
       </c>
-      <c r="C75" s="104">
+      <c r="C75" s="103">
         <v>1.1748812228800001</v>
       </c>
-      <c r="D75" s="105">
+      <c r="D75" s="104">
         <v>0.59331624965759999</v>
       </c>
       <c r="E75" s="52"/>
@@ -12992,20 +12996,20 @@
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
-      <c r="R75" s="74"/>
+      <c r="R75" s="73"/>
       <c r="S75" s="17"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="102">
+      <c r="A76" s="101">
         <v>95</v>
       </c>
-      <c r="B76" s="106">
+      <c r="B76" s="105">
         <v>1019.7259185</v>
       </c>
-      <c r="C76" s="104">
+      <c r="C76" s="103">
         <v>1.143867148</v>
       </c>
-      <c r="D76" s="105">
+      <c r="D76" s="104">
         <v>0.6221741633408</v>
       </c>
       <c r="E76" s="52"/>
@@ -13021,20 +13025,20 @@
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
-      <c r="R76" s="74"/>
+      <c r="R76" s="73"/>
       <c r="S76" s="17"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="102">
+      <c r="A77" s="101">
         <v>95.9</v>
       </c>
-      <c r="B77" s="106">
+      <c r="B77" s="105">
         <v>1030.8938445000001</v>
       </c>
-      <c r="C77" s="104">
+      <c r="C77" s="103">
         <v>1.1037122256</v>
       </c>
-      <c r="D77" s="105">
+      <c r="D77" s="104">
         <v>0.66003374539039994</v>
       </c>
       <c r="E77" s="52"/>
@@ -13050,20 +13054,20 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
-      <c r="R77" s="74"/>
+      <c r="R77" s="73"/>
       <c r="S77" s="17"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="102">
+      <c r="A78" s="101">
         <v>96.8</v>
       </c>
-      <c r="B78" s="106">
+      <c r="B78" s="105">
         <v>1042.23146496</v>
       </c>
-      <c r="C78" s="104">
+      <c r="C78" s="103">
         <v>1.04153273088</v>
       </c>
-      <c r="D78" s="105">
+      <c r="D78" s="104">
         <v>0.7195324357888</v>
       </c>
       <c r="E78" s="52"/>
@@ -13079,23 +13083,23 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
-      <c r="R78" s="74"/>
+      <c r="R78" s="73"/>
       <c r="S78" s="17"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="111">
+      <c r="A79" s="110">
         <v>97.47</v>
       </c>
-      <c r="B79" s="112">
+      <c r="B79" s="111">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C79" s="113">
+      <c r="C79" s="112">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D79" s="114">
+      <c r="D79" s="113">
         <v>0.8770468760672</v>
       </c>
-      <c r="E79" s="70"/>
+      <c r="E79" s="69"/>
       <c r="F79" s="17"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -13108,7 +13112,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-      <c r="R79" s="74"/>
+      <c r="R79" s="73"/>
       <c r="S79" s="17"/>
       <c r="T79" s="22"/>
     </row>
@@ -15334,16 +15338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="N1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
